--- a/Cleaned-Data/2017-Passouts/Sem-6_2017_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2017-Passouts/Sem-6_2017_Passout_cleaned.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$X$146</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="243">
   <si>
     <r>
       <rPr>
@@ -1148,9 +1148,6 @@
   </si>
   <si>
     <t>NP-PR</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P</t>
@@ -1970,6 +1967,72 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,15 +2051,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2005,63 +2059,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2369,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2403,13 +2400,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>67</v>
@@ -2469,15 +2466,15 @@
         <v>85</v>
       </c>
       <c r="W1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="31">
         <v>0</v>
@@ -2543,15 +2540,15 @@
         <v>36</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X2" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="32">
         <v>1</v>
@@ -2617,7 +2614,7 @@
         <v>40</v>
       </c>
       <c r="W3" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" s="33">
         <v>8.4600000000000009</v>
@@ -2625,7 +2622,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="31">
         <v>0</v>
@@ -2691,7 +2688,7 @@
         <v>42</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X4" s="33">
         <v>9.33</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="31">
         <v>0</v>
@@ -2765,15 +2762,15 @@
         <v>36</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X5" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
@@ -2839,7 +2836,7 @@
         <v>43</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" s="33">
         <v>9.8800000000000008</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="31">
         <v>0</v>
@@ -2913,7 +2910,7 @@
         <v>36</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X7" s="33">
         <v>7.67</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="31">
         <v>0</v>
@@ -2987,7 +2984,7 @@
         <v>36</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X8" s="33">
         <v>7</v>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="31">
         <v>0</v>
@@ -3061,7 +3058,7 @@
         <v>45</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X9" s="33">
         <v>9.67</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="31">
         <v>0</v>
@@ -3135,15 +3132,15 @@
         <v>36</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X10" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X10" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="31">
         <v>1</v>
@@ -3209,7 +3206,7 @@
         <v>41</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" s="33">
         <v>9.58</v>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="31">
         <v>1</v>
@@ -3283,7 +3280,7 @@
         <v>43</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X12" s="33">
         <v>10</v>
@@ -3291,7 +3288,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="31">
         <v>1</v>
@@ -3357,7 +3354,7 @@
         <v>36</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X13" s="33">
         <v>9.42</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="31">
         <v>0</v>
@@ -3431,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="W14" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X14" s="33">
         <v>9.67</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="31">
         <v>0</v>
@@ -3505,7 +3502,7 @@
         <v>36</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X15" s="33">
         <v>8.2100000000000009</v>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="31">
         <v>0</v>
@@ -3579,7 +3576,7 @@
         <v>36</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X16" s="33">
         <v>7.79</v>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="31">
         <v>0</v>
@@ -3653,15 +3650,15 @@
         <v>0</v>
       </c>
       <c r="W17" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X17" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X17" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="31">
         <v>0</v>
@@ -3727,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X18" s="33">
         <v>7.33</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="31">
         <v>0</v>
@@ -3801,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X19" s="33">
         <v>9.4600000000000009</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="31">
         <v>0</v>
@@ -3875,7 +3872,7 @@
         <v>41</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X20" s="33">
         <v>8.6300000000000008</v>
@@ -3883,7 +3880,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="31">
         <v>1</v>
@@ -3949,15 +3946,15 @@
         <v>39</v>
       </c>
       <c r="W21" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X21" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X21" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="31">
         <v>0</v>
@@ -4023,7 +4020,7 @@
         <v>36</v>
       </c>
       <c r="W22" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X22" s="33">
         <v>8.6300000000000008</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="31">
         <v>1</v>
@@ -4097,7 +4094,7 @@
         <v>36</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X23" s="33">
         <v>8</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="31">
         <v>0</v>
@@ -4171,7 +4168,7 @@
         <v>43</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X24" s="33">
         <v>7.33</v>
@@ -4179,7 +4176,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="31">
         <v>0</v>
@@ -4245,7 +4242,7 @@
         <v>43</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X25" s="33">
         <v>8.08</v>
@@ -4253,7 +4250,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="31">
         <v>0</v>
@@ -4319,15 +4316,15 @@
         <v>39</v>
       </c>
       <c r="W26" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X26" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X26" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="31">
         <v>0</v>
@@ -4393,7 +4390,7 @@
         <v>36</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X27" s="33">
         <v>9</v>
@@ -4401,7 +4398,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="31">
         <v>0</v>
@@ -4467,7 +4464,7 @@
         <v>39</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X28" s="33">
         <v>7.08</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="31">
         <v>0</v>
@@ -4541,7 +4538,7 @@
         <v>39</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X29" s="33">
         <v>8.33</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="31">
         <v>0</v>
@@ -4615,7 +4612,7 @@
         <v>48</v>
       </c>
       <c r="W30" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X30" s="33">
         <v>8.33</v>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="31">
         <v>1</v>
@@ -4689,7 +4686,7 @@
         <v>44</v>
       </c>
       <c r="W31" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X31" s="33">
         <v>8.92</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="31">
         <v>1</v>
@@ -4763,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="W32" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X32" s="33">
         <v>8.5</v>
@@ -4771,7 +4768,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="31">
         <v>1</v>
@@ -4837,7 +4834,7 @@
         <v>48</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X33" s="33">
         <v>9.67</v>
@@ -4845,7 +4842,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="31">
         <v>0</v>
@@ -4911,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X34" s="33">
         <v>9.17</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="31">
         <v>0</v>
@@ -4985,7 +4982,7 @@
         <v>39</v>
       </c>
       <c r="W35" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X35" s="33">
         <v>7.58</v>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="31">
         <v>1</v>
@@ -5059,7 +5056,7 @@
         <v>36</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X36" s="33">
         <v>7.96</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="31">
         <v>0</v>
@@ -5133,15 +5130,15 @@
         <v>33</v>
       </c>
       <c r="W37" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X37" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X37" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="31">
         <v>1</v>
@@ -5207,7 +5204,7 @@
         <v>33</v>
       </c>
       <c r="W38" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X38" s="33">
         <v>8.5</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="31">
         <v>0</v>
@@ -5281,7 +5278,7 @@
         <v>33</v>
       </c>
       <c r="W39" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X39" s="33">
         <v>6.58</v>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="31">
         <v>0</v>
@@ -5355,7 +5352,7 @@
         <v>43</v>
       </c>
       <c r="W40" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X40" s="33">
         <v>9.5</v>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="31">
         <v>0</v>
@@ -5429,15 +5426,15 @@
         <v>36</v>
       </c>
       <c r="W41" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X41" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X41" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="31">
         <v>1</v>
@@ -5503,7 +5500,7 @@
         <v>36</v>
       </c>
       <c r="W42" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X42" s="33">
         <v>7.67</v>
@@ -5511,7 +5508,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="31">
         <v>0</v>
@@ -5577,7 +5574,7 @@
         <v>46</v>
       </c>
       <c r="W43" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X43" s="33">
         <v>8.33</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="31">
         <v>0</v>
@@ -5651,7 +5648,7 @@
         <v>36</v>
       </c>
       <c r="W44" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X44" s="33">
         <v>7.67</v>
@@ -5659,7 +5656,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="31">
         <v>0</v>
@@ -5725,7 +5722,7 @@
         <v>36</v>
       </c>
       <c r="W45" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X45" s="33">
         <v>7</v>
@@ -5733,7 +5730,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="31">
         <v>0</v>
@@ -5799,7 +5796,7 @@
         <v>39</v>
       </c>
       <c r="W46" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X46" s="33">
         <v>7.75</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="31">
         <v>0</v>
@@ -5873,7 +5870,7 @@
         <v>43</v>
       </c>
       <c r="W47" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X47" s="33">
         <v>7.67</v>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="31">
         <v>0</v>
@@ -5947,7 +5944,7 @@
         <v>39</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X48" s="33">
         <v>8.33</v>
@@ -5955,7 +5952,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="31">
         <v>0</v>
@@ -6021,15 +6018,15 @@
         <v>36</v>
       </c>
       <c r="W49" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X49" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X49" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="31">
         <v>1</v>
@@ -6095,7 +6092,7 @@
         <v>46</v>
       </c>
       <c r="W50" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X50" s="33">
         <v>8.83</v>
@@ -6103,7 +6100,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="31">
         <v>0</v>
@@ -6169,7 +6166,7 @@
         <v>43</v>
       </c>
       <c r="W51" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X51" s="33">
         <v>8.3800000000000008</v>
@@ -6177,7 +6174,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="31">
         <v>0</v>
@@ -6243,7 +6240,7 @@
         <v>46</v>
       </c>
       <c r="W52" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X52" s="33">
         <v>8</v>
@@ -6251,7 +6248,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="31">
         <v>0</v>
@@ -6317,7 +6314,7 @@
         <v>41</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X53" s="33">
         <v>7.83</v>
@@ -6325,7 +6322,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="31">
         <v>0</v>
@@ -6391,7 +6388,7 @@
         <v>43</v>
       </c>
       <c r="W54" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X54" s="33">
         <v>8.0399999999999991</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="31">
         <v>1</v>
@@ -6465,7 +6462,7 @@
         <v>42</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X55" s="33">
         <v>9.83</v>
@@ -6473,7 +6470,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="31">
         <v>0</v>
@@ -6539,15 +6536,15 @@
         <v>41</v>
       </c>
       <c r="W56" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X56" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X56" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" s="31">
         <v>1</v>
@@ -6613,7 +6610,7 @@
         <v>47</v>
       </c>
       <c r="W57" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X57" s="33">
         <v>8.83</v>
@@ -6621,7 +6618,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="31">
         <v>1</v>
@@ -6687,15 +6684,15 @@
         <v>44</v>
       </c>
       <c r="W58" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X58" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X58" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="31">
         <v>0</v>
@@ -6761,7 +6758,7 @@
         <v>47</v>
       </c>
       <c r="W59" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X59" s="33">
         <v>7.29</v>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="31">
         <v>0</v>
@@ -6835,7 +6832,7 @@
         <v>46</v>
       </c>
       <c r="W60" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X60" s="33">
         <v>8.5</v>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="31">
         <v>0</v>
@@ -6909,15 +6906,15 @@
         <v>36</v>
       </c>
       <c r="W61" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X61" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X61" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="31">
         <v>0</v>
@@ -6983,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="W62" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X62" s="33">
         <v>7.21</v>
@@ -6991,7 +6988,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="31">
         <v>0</v>
@@ -7057,7 +7054,7 @@
         <v>41</v>
       </c>
       <c r="W63" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X63" s="33">
         <v>7.63</v>
@@ -7065,7 +7062,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" s="31">
         <v>1</v>
@@ -7131,7 +7128,7 @@
         <v>41</v>
       </c>
       <c r="W64" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X64" s="33">
         <v>8.5</v>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="31">
         <v>0</v>
@@ -7205,7 +7202,7 @@
         <v>46</v>
       </c>
       <c r="W65" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X65" s="33">
         <v>8.33</v>
@@ -7213,7 +7210,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="31">
         <v>0</v>
@@ -7279,7 +7276,7 @@
         <v>41</v>
       </c>
       <c r="W66" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X66" s="33">
         <v>7.83</v>
@@ -7287,7 +7284,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="31">
         <v>0</v>
@@ -7353,7 +7350,7 @@
         <v>44</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X67" s="33">
         <v>8.17</v>
@@ -7361,7 +7358,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="31">
         <v>1</v>
@@ -7427,7 +7424,7 @@
         <v>41</v>
       </c>
       <c r="W68" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X68" s="33">
         <v>9.33</v>
@@ -7435,7 +7432,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="31">
         <v>0</v>
@@ -7501,7 +7498,7 @@
         <v>41</v>
       </c>
       <c r="W69" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X69" s="33">
         <v>9.67</v>
@@ -7509,7 +7506,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="31">
         <v>1</v>
@@ -7575,7 +7572,7 @@
         <v>43</v>
       </c>
       <c r="W70" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X70" s="33">
         <v>7.83</v>
@@ -7583,7 +7580,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="31">
         <v>0</v>
@@ -7649,7 +7646,7 @@
         <v>46</v>
       </c>
       <c r="W71" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X71" s="33">
         <v>7.08</v>
@@ -7657,7 +7654,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="31">
         <v>0</v>
@@ -7723,7 +7720,7 @@
         <v>46</v>
       </c>
       <c r="W72" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X72" s="33">
         <v>8.83</v>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="31">
         <v>0</v>
@@ -7797,7 +7794,7 @@
         <v>47</v>
       </c>
       <c r="W73" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X73" s="33">
         <v>8</v>
@@ -7805,7 +7802,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="31">
         <v>0</v>
@@ -7871,7 +7868,7 @@
         <v>39</v>
       </c>
       <c r="W74" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X74" s="33">
         <v>8.33</v>
@@ -7879,7 +7876,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="31">
         <v>0</v>
@@ -7945,7 +7942,7 @@
         <v>39</v>
       </c>
       <c r="W75" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X75" s="33">
         <v>7.96</v>
@@ -7953,7 +7950,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="31">
         <v>0</v>
@@ -8019,7 +8016,7 @@
         <v>39</v>
       </c>
       <c r="W76" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X76" s="33">
         <v>8.25</v>
@@ -8027,7 +8024,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="31">
         <v>1</v>
@@ -8093,7 +8090,7 @@
         <v>43</v>
       </c>
       <c r="W77" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X77" s="33">
         <v>8.67</v>
@@ -8101,7 +8098,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="31">
         <v>1</v>
@@ -8167,7 +8164,7 @@
         <v>43</v>
       </c>
       <c r="W78" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X78" s="33">
         <v>7.25</v>
@@ -8175,7 +8172,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="31">
         <v>1</v>
@@ -8241,7 +8238,7 @@
         <v>41</v>
       </c>
       <c r="W79" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X79" s="33">
         <v>7.83</v>
@@ -8249,7 +8246,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" s="31">
         <v>0</v>
@@ -8315,7 +8312,7 @@
         <v>39</v>
       </c>
       <c r="W80" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X80" s="33">
         <v>6.88</v>
@@ -8323,7 +8320,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="31">
         <v>0</v>
@@ -8389,15 +8386,15 @@
         <v>0</v>
       </c>
       <c r="W81" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X81" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X81" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" s="31">
         <v>1</v>
@@ -8463,7 +8460,7 @@
         <v>45</v>
       </c>
       <c r="W82" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X82" s="33">
         <v>8.33</v>
@@ -8471,7 +8468,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B83" s="31">
         <v>0</v>
@@ -8537,7 +8534,7 @@
         <v>39</v>
       </c>
       <c r="W83" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X83" s="33">
         <v>6.67</v>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" s="31">
         <v>1</v>
@@ -8611,7 +8608,7 @@
         <v>43</v>
       </c>
       <c r="W84" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X84" s="33">
         <v>7.67</v>
@@ -8619,7 +8616,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" s="31">
         <v>1</v>
@@ -8685,7 +8682,7 @@
         <v>39</v>
       </c>
       <c r="W85" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X85" s="33">
         <v>7.17</v>
@@ -8693,7 +8690,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="31">
         <v>0</v>
@@ -8759,7 +8756,7 @@
         <v>45</v>
       </c>
       <c r="W86" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X86" s="33">
         <v>8.92</v>
@@ -8767,7 +8764,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" s="31">
         <v>0</v>
@@ -8833,7 +8830,7 @@
         <v>39</v>
       </c>
       <c r="W87" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X87" s="33">
         <v>9.67</v>
@@ -8841,7 +8838,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" s="31">
         <v>0</v>
@@ -8907,7 +8904,7 @@
         <v>43</v>
       </c>
       <c r="W88" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X88" s="33">
         <v>9.5</v>
@@ -8915,7 +8912,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" s="31">
         <v>1</v>
@@ -8981,7 +8978,7 @@
         <v>39</v>
       </c>
       <c r="W89" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X89" s="33">
         <v>8.67</v>
@@ -8989,7 +8986,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="31">
         <v>0</v>
@@ -9055,7 +9052,7 @@
         <v>39</v>
       </c>
       <c r="W90" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X90" s="33">
         <v>7.83</v>
@@ -9063,7 +9060,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="31">
         <v>0</v>
@@ -9129,15 +9126,15 @@
         <v>40</v>
       </c>
       <c r="W91" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X91" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X91" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" s="31">
         <v>0</v>
@@ -9203,7 +9200,7 @@
         <v>43</v>
       </c>
       <c r="W92" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X92" s="33">
         <v>8.67</v>
@@ -9211,7 +9208,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B93" s="31">
         <v>0</v>
@@ -9277,7 +9274,7 @@
         <v>45</v>
       </c>
       <c r="W93" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X93" s="33">
         <v>9.83</v>
@@ -9285,7 +9282,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="31">
         <v>0</v>
@@ -9351,7 +9348,7 @@
         <v>39</v>
       </c>
       <c r="W94" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X94" s="33">
         <v>6.29</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B95" s="31">
         <v>0</v>
@@ -9425,7 +9422,7 @@
         <v>45</v>
       </c>
       <c r="W95" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X95" s="33">
         <v>7.54</v>
@@ -9433,7 +9430,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B96" s="31">
         <v>0</v>
@@ -9499,15 +9496,15 @@
         <v>39</v>
       </c>
       <c r="W96" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X96" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X96" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" s="31">
         <v>1</v>
@@ -9573,7 +9570,7 @@
         <v>39</v>
       </c>
       <c r="W97" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X97" s="33">
         <v>7.75</v>
@@ -9581,7 +9578,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" s="31">
         <v>0</v>
@@ -9647,15 +9644,15 @@
         <v>37</v>
       </c>
       <c r="W98" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X98" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X98" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" s="31">
         <v>0</v>
@@ -9721,7 +9718,7 @@
         <v>43</v>
       </c>
       <c r="W99" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X99" s="33">
         <v>8</v>
@@ -9729,7 +9726,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" s="31">
         <v>0</v>
@@ -9795,7 +9792,7 @@
         <v>48</v>
       </c>
       <c r="W100" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X100" s="33">
         <v>6.42</v>
@@ -9803,7 +9800,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" s="31">
         <v>0</v>
@@ -9869,7 +9866,7 @@
         <v>43</v>
       </c>
       <c r="W101" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X101" s="33">
         <v>8</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" s="31">
         <v>0</v>
@@ -9943,7 +9940,7 @@
         <v>39</v>
       </c>
       <c r="W102" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X102" s="33">
         <v>7.58</v>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" s="31">
         <v>0</v>
@@ -10017,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="W103" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X103" s="33">
         <v>7.33</v>
@@ -10025,7 +10022,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="31">
         <v>1</v>
@@ -10091,7 +10088,7 @@
         <v>43</v>
       </c>
       <c r="W104" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X104" s="33">
         <v>8.17</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="31">
         <v>1</v>
@@ -10165,7 +10162,7 @@
         <v>43</v>
       </c>
       <c r="W105" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X105" s="33">
         <v>7.5</v>
@@ -10173,7 +10170,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" s="31">
         <v>0</v>
@@ -10239,15 +10236,15 @@
         <v>39</v>
       </c>
       <c r="W106" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X106" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X106" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" s="31">
         <v>1</v>
@@ -10313,7 +10310,7 @@
         <v>39</v>
       </c>
       <c r="W107" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X107" s="33">
         <v>8.5</v>
@@ -10321,7 +10318,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" s="31">
         <v>0</v>
@@ -10387,7 +10384,7 @@
         <v>43</v>
       </c>
       <c r="W108" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X108" s="33">
         <v>7.83</v>
@@ -10395,7 +10392,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B109" s="31">
         <v>0</v>
@@ -10461,7 +10458,7 @@
         <v>48</v>
       </c>
       <c r="W109" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X109" s="33">
         <v>9.17</v>
@@ -10469,7 +10466,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110" s="31">
         <v>1</v>
@@ -10535,7 +10532,7 @@
         <v>43</v>
       </c>
       <c r="W110" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X110" s="33">
         <v>7.83</v>
@@ -10543,7 +10540,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111" s="31">
         <v>0</v>
@@ -10609,7 +10606,7 @@
         <v>47</v>
       </c>
       <c r="W111" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X111" s="33">
         <v>8.83</v>
@@ -10617,7 +10614,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" s="31">
         <v>1</v>
@@ -10683,7 +10680,7 @@
         <v>43</v>
       </c>
       <c r="W112" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X112" s="33">
         <v>8.17</v>
@@ -10691,7 +10688,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="31">
         <v>0</v>
@@ -10757,7 +10754,7 @@
         <v>41</v>
       </c>
       <c r="W113" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X113" s="33">
         <v>8.33</v>
@@ -10765,7 +10762,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" s="31">
         <v>0</v>
@@ -10831,7 +10828,7 @@
         <v>41</v>
       </c>
       <c r="W114" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X114" s="33">
         <v>8</v>
@@ -10839,7 +10836,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="31">
         <v>0</v>
@@ -10905,7 +10902,7 @@
         <v>41</v>
       </c>
       <c r="W115" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X115" s="33">
         <v>7.88</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B116" s="31">
         <v>1</v>
@@ -10979,7 +10976,7 @@
         <v>41</v>
       </c>
       <c r="W116" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X116" s="33">
         <v>9.5</v>
@@ -10987,7 +10984,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117" s="31">
         <v>0</v>
@@ -11053,7 +11050,7 @@
         <v>42</v>
       </c>
       <c r="W117" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X117" s="33">
         <v>7.5</v>
@@ -11061,7 +11058,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118" s="31">
         <v>0</v>
@@ -11127,7 +11124,7 @@
         <v>42</v>
       </c>
       <c r="W118" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X118" s="33">
         <v>7.08</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B119" s="31">
         <v>1</v>
@@ -11201,7 +11198,7 @@
         <v>41</v>
       </c>
       <c r="W119" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X119" s="33">
         <v>7.5</v>
@@ -11209,7 +11206,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B120" s="31">
         <v>0</v>
@@ -11275,7 +11272,7 @@
         <v>39</v>
       </c>
       <c r="W120" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X120" s="33">
         <v>7.75</v>
@@ -11283,7 +11280,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B121" s="31">
         <v>1</v>
@@ -11349,7 +11346,7 @@
         <v>39</v>
       </c>
       <c r="W121" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X121" s="33">
         <v>10</v>
@@ -11357,7 +11354,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B122" s="31"/>
       <c r="C122" s="31">
@@ -11421,7 +11418,7 @@
         <v>47</v>
       </c>
       <c r="W122" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X122" s="33">
         <v>9.33</v>
@@ -11429,7 +11426,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B123" s="31"/>
       <c r="C123" s="31">
@@ -11493,7 +11490,7 @@
         <v>39</v>
       </c>
       <c r="W123" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X123" s="33">
         <v>9.33</v>
@@ -11501,7 +11498,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B124" s="31"/>
       <c r="C124" s="31">
@@ -11565,7 +11562,7 @@
         <v>39</v>
       </c>
       <c r="W124" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X124" s="33">
         <v>9.5</v>
@@ -11573,7 +11570,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B125" s="31"/>
       <c r="C125" s="31">
@@ -11637,7 +11634,7 @@
         <v>47</v>
       </c>
       <c r="W125" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X125" s="33">
         <v>9.92</v>
@@ -11645,7 +11642,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B126" s="31"/>
       <c r="C126" s="31">
@@ -11709,7 +11706,7 @@
         <v>39</v>
       </c>
       <c r="W126" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X126" s="33">
         <v>9.33</v>
@@ -11717,7 +11714,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B127" s="31"/>
       <c r="C127" s="31">
@@ -11781,7 +11778,7 @@
         <v>46</v>
       </c>
       <c r="W127" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X127" s="33">
         <v>7.29</v>
@@ -11789,7 +11786,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B128" s="31"/>
       <c r="C128" s="31">
@@ -11853,7 +11850,7 @@
         <v>39</v>
       </c>
       <c r="W128" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X128" s="33">
         <v>8.17</v>
@@ -11861,7 +11858,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B129" s="31"/>
       <c r="C129" s="31">
@@ -11925,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="W129" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X129" s="33">
         <v>7.25</v>
@@ -11933,7 +11930,7 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B130" s="31"/>
       <c r="C130" s="31">
@@ -11997,15 +11994,15 @@
         <v>39</v>
       </c>
       <c r="W130" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X130" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X130" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B131" s="31"/>
       <c r="C131" s="31">
@@ -12069,7 +12066,7 @@
         <v>44</v>
       </c>
       <c r="W131" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X131" s="33">
         <v>8.83</v>
@@ -12077,7 +12074,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B132" s="31"/>
       <c r="C132" s="31">
@@ -12141,15 +12138,15 @@
         <v>39</v>
       </c>
       <c r="W132" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X132" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X132" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B133" s="31"/>
       <c r="C133" s="31">
@@ -12213,7 +12210,7 @@
         <v>43</v>
       </c>
       <c r="W133" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X133" s="33">
         <v>9</v>
@@ -12221,7 +12218,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B134" s="31"/>
       <c r="C134" s="31">
@@ -12285,7 +12282,7 @@
         <v>41</v>
       </c>
       <c r="W134" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X134" s="33">
         <v>7.83</v>
@@ -12293,7 +12290,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B135" s="31"/>
       <c r="C135" s="31">
@@ -12357,7 +12354,7 @@
         <v>45</v>
       </c>
       <c r="W135" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X135" s="33">
         <v>8.67</v>
@@ -12365,7 +12362,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B136" s="31"/>
       <c r="C136" s="31">
@@ -12429,7 +12426,7 @@
         <v>39</v>
       </c>
       <c r="W136" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X136" s="33">
         <v>7.88</v>
@@ -12437,7 +12434,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B137" s="31"/>
       <c r="C137" s="31">
@@ -12501,7 +12498,7 @@
         <v>39</v>
       </c>
       <c r="W137" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X137" s="33">
         <v>8.83</v>
@@ -12509,7 +12506,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B138" s="31"/>
       <c r="C138" s="31">
@@ -12573,7 +12570,7 @@
         <v>40</v>
       </c>
       <c r="W138" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X138" s="33">
         <v>8.5</v>
@@ -12581,7 +12578,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B139" s="31"/>
       <c r="C139" s="31">
@@ -12645,7 +12642,7 @@
         <v>40</v>
       </c>
       <c r="W139" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X139" s="33">
         <v>7.17</v>
@@ -12653,7 +12650,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B140" s="31"/>
       <c r="C140" s="31">
@@ -12717,15 +12714,15 @@
         <v>41</v>
       </c>
       <c r="W140" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X140" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X140" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B141" s="31"/>
       <c r="C141" s="31">
@@ -12789,19 +12786,19 @@
         <v>47</v>
       </c>
       <c r="W141" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X141" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X141" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B142" s="31"/>
       <c r="C142" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" s="34">
         <v>33</v>
@@ -12861,19 +12858,19 @@
         <v>39</v>
       </c>
       <c r="W142" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X142" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X142" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B143" s="31"/>
       <c r="C143" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D143" s="34">
         <v>32</v>
@@ -12933,19 +12930,19 @@
         <v>39</v>
       </c>
       <c r="W143" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X143" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X143" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B144" s="31"/>
       <c r="C144" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D144" s="35">
         <v>33</v>
@@ -13005,7 +13002,7 @@
         <v>40</v>
       </c>
       <c r="W144" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X144" s="33">
         <v>5.75</v>
@@ -13013,11 +13010,11 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B145" s="31"/>
       <c r="C145" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D145" s="34">
         <v>32</v>
@@ -13077,19 +13074,19 @@
         <v>40</v>
       </c>
       <c r="W145" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="X145" s="33" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="X145" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B146" s="31"/>
       <c r="C146" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D146" s="35">
         <v>43</v>
@@ -13149,7 +13146,7 @@
         <v>39</v>
       </c>
       <c r="W146" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X146" s="33">
         <v>7.17</v>
@@ -13210,10 +13207,10 @@
       <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
@@ -13223,10 +13220,10 @@
       <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13239,10 +13236,10 @@
       <c r="M1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="37"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13255,10 +13252,10 @@
       <c r="S1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="37"/>
+      <c r="U1" s="59"/>
       <c r="V1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13271,29 +13268,29 @@
       <c r="Y1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="37"/>
+      <c r="AA1" s="59"/>
       <c r="AB1" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="37"/>
+      <c r="AE1" s="59"/>
       <c r="AF1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
@@ -13381,13 +13378,13 @@
       <c r="AE2" s="23">
         <v>75</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -13417,11 +13414,11 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
-      <c r="AF3" s="39"/>
+      <c r="AF3" s="61"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -13451,11 +13448,11 @@
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="39"/>
+      <c r="AF4" s="61"/>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -13485,11 +13482,11 @@
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="39"/>
+      <c r="AF5" s="61"/>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -13519,11 +13516,11 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="39"/>
+      <c r="AF6" s="61"/>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -13553,11 +13550,11 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="39"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -13587,11 +13584,11 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="39"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" spans="1:32" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -13621,11 +13618,11 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="39"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -13655,11 +13652,11 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="39"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -13689,11 +13686,11 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="39"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -13723,11 +13720,11 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
-      <c r="AF12" s="39"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -13757,11 +13754,11 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="39"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -13791,11 +13788,11 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="39"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -13825,11 +13822,11 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
-      <c r="AF15" s="39"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -13859,11 +13856,11 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
-      <c r="AF16" s="39"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="1:70" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -13893,11 +13890,11 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
-      <c r="AF17" s="39"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="1:70" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -13927,11 +13924,11 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
-      <c r="AF18" s="39"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="1:70" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -13961,81 +13958,81 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
-      <c r="AF19" s="39"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49"/>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
-      <c r="BP25" s="49"/>
-      <c r="BQ25" s="49"/>
-      <c r="BR25" s="50"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+      <c r="BO25" s="38"/>
+      <c r="BP25" s="38"/>
+      <c r="BQ25" s="38"/>
+      <c r="BR25" s="47"/>
     </row>
     <row r="26" spans="1:70" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -14063,219 +14060,219 @@
       </c>
     </row>
     <row r="31" spans="1:70" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
-      <c r="BB31" s="52"/>
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52"/>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="52"/>
-      <c r="BM31" s="52"/>
-      <c r="BN31" s="52"/>
-      <c r="BO31" s="52"/>
-      <c r="BP31" s="52"/>
-      <c r="BQ31" s="53"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="50"/>
     </row>
     <row r="32" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="54" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="54" t="s">
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="54" t="s">
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="57" t="s">
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="58"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="57" t="s">
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BB32" s="58"/>
-      <c r="BC32" s="58"/>
-      <c r="BD32" s="58"/>
-      <c r="BE32" s="59"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="54"/>
     </row>
     <row r="33" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="45" t="s">
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="42" t="s">
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="43"/>
-      <c r="AO33" s="43"/>
-      <c r="AP33" s="43"/>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="43"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="42" t="s">
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AV33" s="43"/>
-      <c r="AW33" s="43"/>
-      <c r="AX33" s="43"/>
-      <c r="AY33" s="43"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="63" t="s">
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="41"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="BB33" s="64"/>
-      <c r="BC33" s="64"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="65"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="57"/>
     </row>
     <row r="34" spans="1:62" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -14343,142 +14340,142 @@
       </c>
     </row>
     <row r="47" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="43"/>
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="43"/>
-      <c r="AM47" s="43"/>
-      <c r="AN47" s="43"/>
-      <c r="AO47" s="43"/>
-      <c r="AP47" s="43"/>
-      <c r="AQ47" s="43"/>
-      <c r="AR47" s="43"/>
-      <c r="AS47" s="43"/>
-      <c r="AT47" s="43"/>
-      <c r="AU47" s="43"/>
-      <c r="AV47" s="43"/>
-      <c r="AW47" s="43"/>
-      <c r="AX47" s="43"/>
-      <c r="AY47" s="43"/>
-      <c r="AZ47" s="43"/>
-      <c r="BA47" s="43"/>
-      <c r="BB47" s="43"/>
-      <c r="BC47" s="43"/>
-      <c r="BD47" s="43"/>
-      <c r="BE47" s="43"/>
-      <c r="BF47" s="43"/>
-      <c r="BG47" s="43"/>
-      <c r="BH47" s="43"/>
-      <c r="BI47" s="43"/>
-      <c r="BJ47" s="43"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41"/>
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="41"/>
+      <c r="AT47" s="41"/>
+      <c r="AU47" s="41"/>
+      <c r="AV47" s="41"/>
+      <c r="AW47" s="41"/>
+      <c r="AX47" s="41"/>
+      <c r="AY47" s="41"/>
+      <c r="AZ47" s="41"/>
+      <c r="BA47" s="41"/>
+      <c r="BB47" s="41"/>
+      <c r="BC47" s="41"/>
+      <c r="BD47" s="41"/>
+      <c r="BE47" s="41"/>
+      <c r="BF47" s="41"/>
+      <c r="BG47" s="41"/>
+      <c r="BH47" s="41"/>
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41"/>
     </row>
     <row r="48" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="60"/>
-      <c r="AD48" s="60"/>
-      <c r="AE48" s="60"/>
-      <c r="AF48" s="60"/>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="60"/>
-      <c r="AI48" s="60"/>
-      <c r="AJ48" s="60"/>
-      <c r="AK48" s="60"/>
-      <c r="AL48" s="60"/>
-      <c r="AM48" s="60"/>
-      <c r="AN48" s="60"/>
-      <c r="AO48" s="60"/>
-      <c r="AP48" s="60"/>
-      <c r="AQ48" s="60"/>
-      <c r="AR48" s="60"/>
-      <c r="AS48" s="60"/>
-      <c r="AT48" s="60"/>
-      <c r="AU48" s="60"/>
-      <c r="AV48" s="60"/>
-      <c r="AW48" s="60"/>
-      <c r="AX48" s="60"/>
-      <c r="AY48" s="60"/>
-      <c r="AZ48" s="60"/>
-      <c r="BA48" s="60"/>
-      <c r="BB48" s="60"/>
-      <c r="BC48" s="60"/>
-      <c r="BD48" s="60"/>
-      <c r="BE48" s="60"/>
-      <c r="BF48" s="60"/>
-      <c r="BG48" s="60"/>
-      <c r="BH48" s="60"/>
-      <c r="BI48" s="60"/>
-      <c r="BJ48" s="60"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
     </row>
     <row r="49" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="28">
         <v>49</v>
       </c>
@@ -14488,119 +14485,119 @@
       <c r="E49" s="28">
         <v>62</v>
       </c>
-      <c r="F49" s="61">
-        <v>22</v>
-      </c>
-      <c r="G49" s="61"/>
+      <c r="F49" s="36">
+        <v>22</v>
+      </c>
+      <c r="G49" s="36"/>
       <c r="H49" s="28">
         <v>21</v>
       </c>
-      <c r="I49" s="61">
+      <c r="I49" s="36">
         <v>43</v>
       </c>
-      <c r="J49" s="61"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="28">
         <v>46</v>
       </c>
-      <c r="L49" s="61">
+      <c r="L49" s="36">
         <v>16</v>
       </c>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61">
+      <c r="M49" s="36"/>
+      <c r="N49" s="36">
         <v>62</v>
       </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61">
-        <v>20</v>
-      </c>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36">
+        <v>20</v>
+      </c>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36">
         <v>40</v>
       </c>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61">
+      <c r="V49" s="36"/>
+      <c r="W49" s="36">
         <v>39</v>
       </c>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61">
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36">
         <v>13</v>
       </c>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61">
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="36">
         <v>52</v>
       </c>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61">
-        <v>21</v>
-      </c>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61">
-        <v>21</v>
-      </c>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61">
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36">
+        <v>21</v>
+      </c>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36">
+        <v>21</v>
+      </c>
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="36">
         <v>42</v>
       </c>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="61">
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="36">
         <v>33</v>
       </c>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61">
+      <c r="AM49" s="36"/>
+      <c r="AN49" s="36"/>
+      <c r="AO49" s="36">
         <v>13</v>
       </c>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61">
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="36">
         <v>46</v>
       </c>
-      <c r="AR49" s="61"/>
-      <c r="AS49" s="61">
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="36">
         <v>19</v>
       </c>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61">
-        <v>20</v>
-      </c>
-      <c r="AW49" s="61"/>
-      <c r="AX49" s="62" t="s">
+      <c r="AT49" s="36"/>
+      <c r="AU49" s="36"/>
+      <c r="AV49" s="36">
+        <v>20</v>
+      </c>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="58" t="s">
+      <c r="AY49" s="43"/>
+      <c r="AZ49" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BA49" s="58"/>
-      <c r="BB49" s="58"/>
-      <c r="BC49" s="58"/>
-      <c r="BD49" s="61">
-        <v>22</v>
-      </c>
-      <c r="BE49" s="61"/>
-      <c r="BF49" s="61"/>
-      <c r="BG49" s="61">
+      <c r="BA49" s="39"/>
+      <c r="BB49" s="39"/>
+      <c r="BC49" s="39"/>
+      <c r="BD49" s="36">
+        <v>22</v>
+      </c>
+      <c r="BE49" s="36"/>
+      <c r="BF49" s="36"/>
+      <c r="BG49" s="36">
         <v>39</v>
       </c>
-      <c r="BH49" s="61"/>
-      <c r="BI49" s="61">
+      <c r="BH49" s="36"/>
+      <c r="BI49" s="36">
         <v>61</v>
       </c>
-      <c r="BJ49" s="61"/>
+      <c r="BJ49" s="36"/>
     </row>
     <row r="50" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="58"/>
+      <c r="A50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="39"/>
       <c r="C50" s="26" t="s">
         <v>22</v>
       </c>
@@ -14610,371 +14607,371 @@
       <c r="E50" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="58"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="58"/>
+      <c r="J50" s="39"/>
       <c r="K50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="55" t="s">
+      <c r="L50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="55"/>
-      <c r="P50" s="58" t="s">
+      <c r="M50" s="40"/>
+      <c r="N50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="40"/>
+      <c r="P50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="55" t="s">
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="55"/>
-      <c r="U50" s="58" t="s">
+      <c r="T50" s="40"/>
+      <c r="U50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="V50" s="58"/>
-      <c r="W50" s="55" t="s">
+      <c r="V50" s="39"/>
+      <c r="W50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="58" t="s">
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="55" t="s">
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AI50" s="55"/>
-      <c r="AJ50" s="58" t="s">
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM50" s="55"/>
-      <c r="AN50" s="55"/>
-      <c r="AO50" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP50" s="55"/>
-      <c r="AQ50" s="55" t="s">
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM50" s="40"/>
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP50" s="40"/>
+      <c r="AQ50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="58" t="s">
+      <c r="AR50" s="40"/>
+      <c r="AS50" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58" t="s">
+      <c r="AT50" s="39"/>
+      <c r="AU50" s="39"/>
+      <c r="AV50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58" t="s">
+      <c r="AW50" s="39"/>
+      <c r="AX50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="55" t="s">
+      <c r="AY50" s="39"/>
+      <c r="AZ50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BA50" s="55"/>
-      <c r="BB50" s="55"/>
-      <c r="BC50" s="55"/>
-      <c r="BD50" s="58" t="s">
+      <c r="BA50" s="40"/>
+      <c r="BB50" s="40"/>
+      <c r="BC50" s="40"/>
+      <c r="BD50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BE50" s="58"/>
-      <c r="BF50" s="58"/>
-      <c r="BG50" s="55" t="s">
+      <c r="BE50" s="39"/>
+      <c r="BF50" s="39"/>
+      <c r="BG50" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BH50" s="55"/>
-      <c r="BI50" s="58" t="s">
+      <c r="BH50" s="40"/>
+      <c r="BI50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BJ50" s="58"/>
+      <c r="BJ50" s="39"/>
     </row>
     <row r="51" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="29">
         <v>7</v>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="61">
+      <c r="I51" s="36">
         <v>10</v>
       </c>
-      <c r="J51" s="61"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="27"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="66">
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="37">
         <v>7</v>
       </c>
-      <c r="O51" s="66"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="61">
+      <c r="O51" s="37"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="36">
         <v>10</v>
       </c>
-      <c r="V51" s="61"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="66">
+      <c r="V51" s="36"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="37">
         <v>6</v>
       </c>
-      <c r="AB51" s="66"/>
-      <c r="AC51" s="49"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
-      <c r="AG51" s="49"/>
-      <c r="AH51" s="49"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="61">
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="38"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="38"/>
+      <c r="AJ51" s="36">
         <v>10</v>
       </c>
-      <c r="AK51" s="61"/>
-      <c r="AL51" s="49"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="49"/>
-      <c r="AP51" s="49"/>
-      <c r="AQ51" s="66">
+      <c r="AK51" s="36"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="38"/>
+      <c r="AN51" s="38"/>
+      <c r="AO51" s="38"/>
+      <c r="AP51" s="38"/>
+      <c r="AQ51" s="37">
         <v>5</v>
       </c>
-      <c r="AR51" s="66"/>
-      <c r="AS51" s="49"/>
-      <c r="AT51" s="49"/>
-      <c r="AU51" s="49"/>
-      <c r="AV51" s="49"/>
-      <c r="AW51" s="49"/>
-      <c r="AX51" s="61">
+      <c r="AR51" s="37"/>
+      <c r="AS51" s="38"/>
+      <c r="AT51" s="38"/>
+      <c r="AU51" s="38"/>
+      <c r="AV51" s="38"/>
+      <c r="AW51" s="38"/>
+      <c r="AX51" s="36">
         <v>10</v>
       </c>
-      <c r="AY51" s="61"/>
-      <c r="AZ51" s="66">
+      <c r="AY51" s="36"/>
+      <c r="AZ51" s="37">
         <v>10</v>
       </c>
-      <c r="BA51" s="66"/>
-      <c r="BB51" s="66"/>
-      <c r="BC51" s="66"/>
-      <c r="BD51" s="49"/>
-      <c r="BE51" s="49"/>
-      <c r="BF51" s="49"/>
-      <c r="BG51" s="49"/>
-      <c r="BH51" s="49"/>
-      <c r="BI51" s="61">
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="37"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="38"/>
+      <c r="BE51" s="38"/>
+      <c r="BF51" s="38"/>
+      <c r="BG51" s="38"/>
+      <c r="BH51" s="38"/>
+      <c r="BI51" s="36">
         <v>10</v>
       </c>
-      <c r="BJ51" s="61"/>
+      <c r="BJ51" s="36"/>
     </row>
     <row r="52" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="29">
         <v>4</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="66">
+      <c r="I52" s="37">
         <v>1</v>
       </c>
-      <c r="J52" s="66"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="27"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="66">
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="37">
         <v>4</v>
       </c>
-      <c r="O52" s="66"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="66">
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="37">
         <v>1</v>
       </c>
-      <c r="V52" s="66"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="66">
+      <c r="V52" s="37"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="37">
         <v>4</v>
       </c>
-      <c r="AB52" s="66"/>
-      <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="49"/>
-      <c r="AJ52" s="66">
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="38"/>
+      <c r="AD52" s="38"/>
+      <c r="AE52" s="38"/>
+      <c r="AF52" s="38"/>
+      <c r="AG52" s="38"/>
+      <c r="AH52" s="38"/>
+      <c r="AI52" s="38"/>
+      <c r="AJ52" s="37">
         <v>1</v>
       </c>
-      <c r="AK52" s="66"/>
-      <c r="AL52" s="49"/>
-      <c r="AM52" s="49"/>
-      <c r="AN52" s="49"/>
-      <c r="AO52" s="49"/>
-      <c r="AP52" s="49"/>
-      <c r="AQ52" s="66">
+      <c r="AK52" s="37"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="38"/>
+      <c r="AN52" s="38"/>
+      <c r="AO52" s="38"/>
+      <c r="AP52" s="38"/>
+      <c r="AQ52" s="37">
         <v>4</v>
       </c>
-      <c r="AR52" s="66"/>
-      <c r="AS52" s="49"/>
-      <c r="AT52" s="49"/>
-      <c r="AU52" s="49"/>
-      <c r="AV52" s="49"/>
-      <c r="AW52" s="49"/>
-      <c r="AX52" s="61">
+      <c r="AR52" s="37"/>
+      <c r="AS52" s="38"/>
+      <c r="AT52" s="38"/>
+      <c r="AU52" s="38"/>
+      <c r="AV52" s="38"/>
+      <c r="AW52" s="38"/>
+      <c r="AX52" s="36">
         <v>1</v>
       </c>
-      <c r="AY52" s="61"/>
-      <c r="AZ52" s="66">
+      <c r="AY52" s="36"/>
+      <c r="AZ52" s="37">
         <v>2</v>
       </c>
-      <c r="BA52" s="66"/>
-      <c r="BB52" s="66"/>
-      <c r="BC52" s="66"/>
-      <c r="BD52" s="49"/>
-      <c r="BE52" s="49"/>
-      <c r="BF52" s="49"/>
-      <c r="BG52" s="49"/>
-      <c r="BH52" s="49"/>
-      <c r="BI52" s="66">
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="37"/>
+      <c r="BC52" s="37"/>
+      <c r="BD52" s="38"/>
+      <c r="BE52" s="38"/>
+      <c r="BF52" s="38"/>
+      <c r="BG52" s="38"/>
+      <c r="BH52" s="38"/>
+      <c r="BI52" s="37">
         <v>2</v>
       </c>
-      <c r="BJ52" s="66"/>
+      <c r="BJ52" s="37"/>
     </row>
     <row r="53" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28">
         <v>28</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="61">
+      <c r="I53" s="36">
         <v>10</v>
       </c>
-      <c r="J53" s="61"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="27"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="61">
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="36">
         <v>28</v>
       </c>
-      <c r="O53" s="61"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="61">
+      <c r="O53" s="36"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="36">
         <v>10</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="61">
+      <c r="V53" s="36"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="36">
         <v>24</v>
       </c>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="61">
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="38"/>
+      <c r="AE53" s="38"/>
+      <c r="AF53" s="38"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="38"/>
+      <c r="AJ53" s="36">
         <v>10</v>
       </c>
-      <c r="AK53" s="61"/>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="49"/>
-      <c r="AN53" s="49"/>
-      <c r="AO53" s="49"/>
-      <c r="AP53" s="49"/>
-      <c r="AQ53" s="61">
-        <v>20</v>
-      </c>
-      <c r="AR53" s="61"/>
-      <c r="AS53" s="49"/>
-      <c r="AT53" s="49"/>
-      <c r="AU53" s="49"/>
-      <c r="AV53" s="49"/>
-      <c r="AW53" s="49"/>
-      <c r="AX53" s="61">
+      <c r="AK53" s="36"/>
+      <c r="AL53" s="38"/>
+      <c r="AM53" s="38"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="38"/>
+      <c r="AQ53" s="36">
+        <v>20</v>
+      </c>
+      <c r="AR53" s="36"/>
+      <c r="AS53" s="38"/>
+      <c r="AT53" s="38"/>
+      <c r="AU53" s="38"/>
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="38"/>
+      <c r="AX53" s="36">
         <v>10</v>
       </c>
-      <c r="AY53" s="61"/>
-      <c r="AZ53" s="66">
-        <v>20</v>
-      </c>
-      <c r="BA53" s="66"/>
-      <c r="BB53" s="66"/>
-      <c r="BC53" s="66"/>
-      <c r="BD53" s="49"/>
-      <c r="BE53" s="49"/>
-      <c r="BF53" s="49"/>
-      <c r="BG53" s="49"/>
-      <c r="BH53" s="49"/>
-      <c r="BI53" s="61">
-        <v>20</v>
-      </c>
-      <c r="BJ53" s="61"/>
+      <c r="AY53" s="36"/>
+      <c r="AZ53" s="37">
+        <v>20</v>
+      </c>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="38"/>
+      <c r="BE53" s="38"/>
+      <c r="BF53" s="38"/>
+      <c r="BG53" s="38"/>
+      <c r="BH53" s="38"/>
+      <c r="BI53" s="36">
+        <v>20</v>
+      </c>
+      <c r="BJ53" s="36"/>
     </row>
     <row r="54" spans="1:62" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -15003,16 +15000,117 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="AX53:AY53"/>
-    <mergeCell ref="AZ53:BC53"/>
-    <mergeCell ref="BD53:BF53"/>
-    <mergeCell ref="BG53:BH53"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="AL53:AN53"/>
-    <mergeCell ref="AO53:AP53"/>
-    <mergeCell ref="AQ53:AR53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AV53:AW53"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A2:B19"/>
+    <mergeCell ref="AF2:AF19"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="R33:AE33"/>
+    <mergeCell ref="AF33:AT33"/>
+    <mergeCell ref="AU33:AZ33"/>
+    <mergeCell ref="A25:BR25"/>
+    <mergeCell ref="A31:BQ31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="R32:AE32"/>
+    <mergeCell ref="AF32:AT32"/>
+    <mergeCell ref="AU32:AZ32"/>
+    <mergeCell ref="BA32:BE32"/>
+    <mergeCell ref="BA33:BE33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:BJ48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AX49:AY49"/>
+    <mergeCell ref="AZ49:BC49"/>
+    <mergeCell ref="BD49:BF49"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AJ49:AK49"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AQ49:AR49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="AL50:AN50"/>
+    <mergeCell ref="AO50:AP50"/>
+    <mergeCell ref="AQ50:AR50"/>
+    <mergeCell ref="AS50:AU50"/>
+    <mergeCell ref="AV50:AW50"/>
+    <mergeCell ref="BG49:BH49"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AC50:AG50"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AV49:AW49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="AX50:AY50"/>
+    <mergeCell ref="AZ50:BC50"/>
+    <mergeCell ref="BD50:BF50"/>
+    <mergeCell ref="BG50:BH50"/>
+    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="AL51:AN51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AO52:AP52"/>
+    <mergeCell ref="AQ52:AR52"/>
+    <mergeCell ref="AZ51:BC51"/>
+    <mergeCell ref="BD51:BF51"/>
+    <mergeCell ref="BG51:BH51"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AO51:AP51"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AS51:AU51"/>
+    <mergeCell ref="AV51:AW51"/>
+    <mergeCell ref="AX51:AY51"/>
+    <mergeCell ref="AA51:AB51"/>
     <mergeCell ref="BG52:BH52"/>
     <mergeCell ref="BI52:BJ52"/>
     <mergeCell ref="A53:B53"/>
@@ -15037,117 +15135,16 @@
     <mergeCell ref="AH52:AI52"/>
     <mergeCell ref="AJ52:AK52"/>
     <mergeCell ref="AL52:AN52"/>
-    <mergeCell ref="AO52:AP52"/>
-    <mergeCell ref="AQ52:AR52"/>
-    <mergeCell ref="AZ51:BC51"/>
-    <mergeCell ref="BD51:BF51"/>
-    <mergeCell ref="BG51:BH51"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="AO51:AP51"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AS51:AU51"/>
-    <mergeCell ref="AV51:AW51"/>
-    <mergeCell ref="AX51:AY51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="AX50:AY50"/>
-    <mergeCell ref="AZ50:BC50"/>
-    <mergeCell ref="BD50:BF50"/>
-    <mergeCell ref="BG50:BH50"/>
-    <mergeCell ref="AC51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="AL51:AN51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="AL50:AN50"/>
-    <mergeCell ref="AO50:AP50"/>
-    <mergeCell ref="AQ50:AR50"/>
-    <mergeCell ref="AS50:AU50"/>
-    <mergeCell ref="AV50:AW50"/>
-    <mergeCell ref="BG49:BH49"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AC50:AG50"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AV49:AW49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:BJ48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AX49:AY49"/>
-    <mergeCell ref="AZ49:BC49"/>
-    <mergeCell ref="BD49:BF49"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AJ49:AK49"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AQ49:AR49"/>
-    <mergeCell ref="AU33:AZ33"/>
-    <mergeCell ref="A25:BR25"/>
-    <mergeCell ref="A31:BQ31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="R32:AE32"/>
-    <mergeCell ref="AF32:AT32"/>
-    <mergeCell ref="AU32:AZ32"/>
-    <mergeCell ref="BA32:BE32"/>
-    <mergeCell ref="BA33:BE33"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A2:B19"/>
-    <mergeCell ref="AF2:AF19"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="R33:AE33"/>
-    <mergeCell ref="AF33:AT33"/>
+    <mergeCell ref="AX53:AY53"/>
+    <mergeCell ref="AZ53:BC53"/>
+    <mergeCell ref="BD53:BF53"/>
+    <mergeCell ref="BG53:BH53"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="AL53:AN53"/>
+    <mergeCell ref="AO53:AP53"/>
+    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="AS53:AU53"/>
+    <mergeCell ref="AV53:AW53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15202,10 +15199,10 @@
       <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
@@ -15215,10 +15212,10 @@
       <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15231,10 +15228,10 @@
       <c r="M1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="37"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15247,10 +15244,10 @@
       <c r="S1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="37"/>
+      <c r="U1" s="59"/>
       <c r="V1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15263,29 +15260,29 @@
       <c r="Y1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="37"/>
+      <c r="AA1" s="59"/>
       <c r="AB1" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="37"/>
+      <c r="AE1" s="59"/>
       <c r="AF1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
@@ -15373,13 +15370,13 @@
       <c r="AE2" s="23">
         <v>75</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="61" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -15409,11 +15406,11 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
-      <c r="AF3" s="39"/>
+      <c r="AF3" s="61"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -15443,11 +15440,11 @@
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="39"/>
+      <c r="AF4" s="61"/>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -15477,11 +15474,11 @@
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="39"/>
+      <c r="AF5" s="61"/>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -15511,11 +15508,11 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="39"/>
+      <c r="AF6" s="61"/>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -15545,11 +15542,11 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="39"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -15579,11 +15576,11 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="39"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" spans="1:32" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -15613,11 +15610,11 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="39"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -15647,11 +15644,11 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="39"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -15681,11 +15678,11 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="39"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -15715,11 +15712,11 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
-      <c r="AF12" s="39"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -15749,11 +15746,11 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="39"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -15783,81 +15780,81 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="39"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49"/>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49"/>
-      <c r="BD18" s="49"/>
-      <c r="BE18" s="49"/>
-      <c r="BF18" s="49"/>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="49"/>
-      <c r="BJ18" s="49"/>
-      <c r="BK18" s="49"/>
-      <c r="BL18" s="49"/>
-      <c r="BM18" s="49"/>
-      <c r="BN18" s="49"/>
-      <c r="BO18" s="49"/>
-      <c r="BP18" s="49"/>
-      <c r="BQ18" s="49"/>
-      <c r="BR18" s="50"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="47"/>
     </row>
     <row r="19" spans="1:70" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -15885,219 +15882,219 @@
       </c>
     </row>
     <row r="24" spans="1:70" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="52"/>
-      <c r="BM24" s="52"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="52"/>
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="53"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="49"/>
+      <c r="BK24" s="49"/>
+      <c r="BL24" s="49"/>
+      <c r="BM24" s="49"/>
+      <c r="BN24" s="49"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="50"/>
     </row>
     <row r="25" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="54" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="54" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="54" t="s">
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="55"/>
-      <c r="AO25" s="55"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="55"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="57" t="s">
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="57" t="s">
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="59"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="54"/>
     </row>
     <row r="26" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="45" t="s">
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="42" t="s">
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="42" t="s">
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="63" t="s">
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="BB26" s="64"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="64"/>
-      <c r="BE26" s="65"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56"/>
+      <c r="BE26" s="57"/>
     </row>
     <row r="27" spans="1:70" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -16160,142 +16157,142 @@
       </c>
     </row>
     <row r="39" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
-      <c r="AP39" s="43"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="43"/>
-      <c r="AS39" s="43"/>
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="43"/>
-      <c r="AV39" s="43"/>
-      <c r="AW39" s="43"/>
-      <c r="AX39" s="43"/>
-      <c r="AY39" s="43"/>
-      <c r="AZ39" s="43"/>
-      <c r="BA39" s="43"/>
-      <c r="BB39" s="43"/>
-      <c r="BC39" s="43"/>
-      <c r="BD39" s="43"/>
-      <c r="BE39" s="43"/>
-      <c r="BF39" s="43"/>
-      <c r="BG39" s="43"/>
-      <c r="BH39" s="43"/>
-      <c r="BI39" s="43"/>
-      <c r="BJ39" s="43"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41"/>
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
+      <c r="BA39" s="41"/>
+      <c r="BB39" s="41"/>
+      <c r="BC39" s="41"/>
+      <c r="BD39" s="41"/>
+      <c r="BE39" s="41"/>
+      <c r="BF39" s="41"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="41"/>
+      <c r="BJ39" s="41"/>
     </row>
     <row r="40" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="60"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="60"/>
-      <c r="AL40" s="60"/>
-      <c r="AM40" s="60"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="60"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="60"/>
-      <c r="AR40" s="60"/>
-      <c r="AS40" s="60"/>
-      <c r="AT40" s="60"/>
-      <c r="AU40" s="60"/>
-      <c r="AV40" s="60"/>
-      <c r="AW40" s="60"/>
-      <c r="AX40" s="60"/>
-      <c r="AY40" s="60"/>
-      <c r="AZ40" s="60"/>
-      <c r="BA40" s="60"/>
-      <c r="BB40" s="60"/>
-      <c r="BC40" s="60"/>
-      <c r="BD40" s="60"/>
-      <c r="BE40" s="60"/>
-      <c r="BF40" s="60"/>
-      <c r="BG40" s="60"/>
-      <c r="BH40" s="60"/>
-      <c r="BI40" s="60"/>
-      <c r="BJ40" s="60"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="42"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="42"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
+      <c r="BI40" s="42"/>
+      <c r="BJ40" s="42"/>
     </row>
     <row r="41" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="28">
         <v>53</v>
       </c>
@@ -16305,119 +16302,119 @@
       <c r="E41" s="28">
         <v>73</v>
       </c>
-      <c r="F41" s="61">
-        <v>23</v>
-      </c>
-      <c r="G41" s="61"/>
+      <c r="F41" s="36">
+        <v>23</v>
+      </c>
+      <c r="G41" s="36"/>
       <c r="H41" s="28">
         <v>22</v>
       </c>
-      <c r="I41" s="61">
+      <c r="I41" s="36">
         <v>45</v>
       </c>
-      <c r="J41" s="61"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="28">
         <v>57</v>
       </c>
-      <c r="L41" s="61">
+      <c r="L41" s="36">
         <v>18</v>
       </c>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61">
+      <c r="M41" s="36"/>
+      <c r="N41" s="36">
         <v>75</v>
       </c>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61">
-        <v>23</v>
-      </c>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61">
+      <c r="O41" s="36"/>
+      <c r="P41" s="36">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36">
+        <v>23</v>
+      </c>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36">
         <v>46</v>
       </c>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61">
+      <c r="V41" s="36"/>
+      <c r="W41" s="36">
         <v>55</v>
       </c>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61">
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36">
         <v>15</v>
       </c>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="61">
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36">
         <v>70</v>
       </c>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61">
-        <v>20</v>
-      </c>
-      <c r="AE41" s="61"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61">
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36">
+        <v>20</v>
+      </c>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36">
         <v>17</v>
       </c>
-      <c r="AI41" s="61"/>
-      <c r="AJ41" s="62" t="s">
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="61">
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="36">
         <v>50</v>
       </c>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="61">
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36">
         <v>11</v>
       </c>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="61">
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36">
         <v>61</v>
       </c>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="61">
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36">
         <v>17</v>
       </c>
-      <c r="AT41" s="61"/>
-      <c r="AU41" s="61"/>
-      <c r="AV41" s="61">
-        <v>22</v>
-      </c>
-      <c r="AW41" s="61"/>
-      <c r="AX41" s="62" t="s">
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="36">
+        <v>22</v>
+      </c>
+      <c r="AW41" s="36"/>
+      <c r="AX41" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="66">
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="37">
         <v>48</v>
       </c>
-      <c r="BA41" s="66"/>
-      <c r="BB41" s="66"/>
-      <c r="BC41" s="61">
-        <v>23</v>
-      </c>
-      <c r="BD41" s="61"/>
-      <c r="BE41" s="61"/>
-      <c r="BF41" s="61"/>
-      <c r="BG41" s="61">
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="36">
+        <v>23</v>
+      </c>
+      <c r="BD41" s="36"/>
+      <c r="BE41" s="36"/>
+      <c r="BF41" s="36"/>
+      <c r="BG41" s="36">
         <v>43</v>
       </c>
-      <c r="BH41" s="61"/>
-      <c r="BI41" s="61">
+      <c r="BH41" s="36"/>
+      <c r="BI41" s="36">
         <v>66</v>
       </c>
-      <c r="BJ41" s="61"/>
+      <c r="BJ41" s="36"/>
     </row>
     <row r="42" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="58"/>
+      <c r="A42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="39"/>
       <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
@@ -16427,377 +16424,377 @@
       <c r="E42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="58"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="58"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="55" t="s">
+      <c r="L42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55" t="s">
+      <c r="M42" s="40"/>
+      <c r="N42" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="58" t="s">
+      <c r="O42" s="40"/>
+      <c r="P42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="55" t="s">
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="55"/>
-      <c r="U42" s="58" t="s">
+      <c r="T42" s="40"/>
+      <c r="U42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="V42" s="58"/>
-      <c r="W42" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55" t="s">
+      <c r="V42" s="39"/>
+      <c r="W42" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55" t="s">
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="58" t="s">
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI42" s="58"/>
-      <c r="AJ42" s="55" t="s">
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58" t="s">
+      <c r="AK42" s="40"/>
+      <c r="AL42" s="40"/>
+      <c r="AM42" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT42" s="39"/>
+      <c r="AU42" s="39"/>
+      <c r="AV42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58" t="s">
+      <c r="AW42" s="39"/>
+      <c r="AX42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="55" t="s">
+      <c r="AY42" s="39"/>
+      <c r="AZ42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BA42" s="55"/>
-      <c r="BB42" s="55"/>
-      <c r="BC42" s="58" t="s">
+      <c r="BA42" s="40"/>
+      <c r="BB42" s="40"/>
+      <c r="BC42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BD42" s="58"/>
-      <c r="BE42" s="58"/>
-      <c r="BF42" s="58"/>
-      <c r="BG42" s="55" t="s">
+      <c r="BD42" s="39"/>
+      <c r="BE42" s="39"/>
+      <c r="BF42" s="39"/>
+      <c r="BG42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BH42" s="55"/>
-      <c r="BI42" s="58" t="s">
+      <c r="BH42" s="40"/>
+      <c r="BI42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BJ42" s="58"/>
+      <c r="BJ42" s="39"/>
     </row>
     <row r="43" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="29">
         <v>8</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="61">
+      <c r="I43" s="36">
         <v>10</v>
       </c>
-      <c r="J43" s="61"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="27"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="66">
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="37">
         <v>9</v>
       </c>
-      <c r="O43" s="66"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="61">
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="36">
         <v>10</v>
       </c>
-      <c r="V43" s="61"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="66">
+      <c r="V43" s="36"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="37">
         <v>8</v>
       </c>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="61">
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="36">
         <v>10</v>
       </c>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="66">
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="37">
         <v>7</v>
       </c>
-      <c r="AR43" s="66"/>
-      <c r="AS43" s="49"/>
-      <c r="AT43" s="49"/>
-      <c r="AU43" s="49"/>
-      <c r="AV43" s="49"/>
-      <c r="AW43" s="49"/>
-      <c r="AX43" s="61">
+      <c r="AR43" s="37"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="36">
         <v>10</v>
       </c>
-      <c r="AY43" s="61"/>
-      <c r="AZ43" s="66">
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="37">
         <v>10</v>
       </c>
-      <c r="BA43" s="66"/>
-      <c r="BB43" s="66"/>
-      <c r="BC43" s="49"/>
-      <c r="BD43" s="49"/>
-      <c r="BE43" s="49"/>
-      <c r="BF43" s="49"/>
-      <c r="BG43" s="49"/>
-      <c r="BH43" s="49"/>
-      <c r="BI43" s="61">
+      <c r="BA43" s="37"/>
+      <c r="BB43" s="37"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="36">
         <v>10</v>
       </c>
-      <c r="BJ43" s="61"/>
+      <c r="BJ43" s="36"/>
     </row>
     <row r="44" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="29">
         <v>4</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="66">
+      <c r="I44" s="37">
         <v>1</v>
       </c>
-      <c r="J44" s="66"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="27"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="66">
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="37">
         <v>4</v>
       </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="66">
+      <c r="O44" s="37"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="37">
         <v>1</v>
       </c>
-      <c r="V44" s="66"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="66">
+      <c r="V44" s="37"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="37">
         <v>4</v>
       </c>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="66">
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="37">
         <v>1</v>
       </c>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="66">
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="37">
         <v>4</v>
       </c>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="49"/>
-      <c r="AT44" s="49"/>
-      <c r="AU44" s="49"/>
-      <c r="AV44" s="49"/>
-      <c r="AW44" s="49"/>
-      <c r="AX44" s="61">
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="36">
         <v>1</v>
       </c>
-      <c r="AY44" s="61"/>
-      <c r="AZ44" s="66">
+      <c r="AY44" s="36"/>
+      <c r="AZ44" s="37">
         <v>2</v>
       </c>
-      <c r="BA44" s="66"/>
-      <c r="BB44" s="66"/>
-      <c r="BC44" s="49"/>
-      <c r="BD44" s="49"/>
-      <c r="BE44" s="49"/>
-      <c r="BF44" s="49"/>
-      <c r="BG44" s="49"/>
-      <c r="BH44" s="49"/>
-      <c r="BI44" s="66">
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38"/>
+      <c r="BI44" s="37">
         <v>2</v>
       </c>
-      <c r="BJ44" s="66"/>
+      <c r="BJ44" s="37"/>
     </row>
     <row r="45" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="28">
         <v>32</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="61">
+      <c r="I45" s="36">
         <v>10</v>
       </c>
-      <c r="J45" s="61"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="27"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="61">
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="36">
         <v>36</v>
       </c>
-      <c r="O45" s="61"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="61">
+      <c r="O45" s="36"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="36">
         <v>10</v>
       </c>
-      <c r="V45" s="61"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="61">
+      <c r="V45" s="36"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="36">
         <v>32</v>
       </c>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
-      <c r="AF45" s="49"/>
-      <c r="AG45" s="49"/>
-      <c r="AH45" s="49"/>
-      <c r="AI45" s="49"/>
-      <c r="AJ45" s="61">
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="36">
         <v>10</v>
       </c>
-      <c r="AK45" s="61"/>
-      <c r="AL45" s="61"/>
-      <c r="AM45" s="49"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
-      <c r="AQ45" s="61">
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="36">
         <v>28</v>
       </c>
-      <c r="AR45" s="61"/>
-      <c r="AS45" s="49"/>
-      <c r="AT45" s="49"/>
-      <c r="AU45" s="49"/>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="61">
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="38"/>
+      <c r="AT45" s="38"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="38"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="36">
         <v>10</v>
       </c>
-      <c r="AY45" s="61"/>
-      <c r="AZ45" s="66">
-        <v>20</v>
-      </c>
-      <c r="BA45" s="66"/>
-      <c r="BB45" s="66"/>
-      <c r="BC45" s="49"/>
-      <c r="BD45" s="49"/>
-      <c r="BE45" s="49"/>
-      <c r="BF45" s="49"/>
-      <c r="BG45" s="49"/>
-      <c r="BH45" s="49"/>
-      <c r="BI45" s="61">
-        <v>20</v>
-      </c>
-      <c r="BJ45" s="61"/>
+      <c r="AY45" s="36"/>
+      <c r="AZ45" s="37">
+        <v>20</v>
+      </c>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="37"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="36">
+        <v>20</v>
+      </c>
+      <c r="BJ45" s="36"/>
     </row>
     <row r="46" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="49"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="28">
         <v>35</v>
       </c>
@@ -16807,119 +16804,119 @@
       <c r="E46" s="28">
         <v>50</v>
       </c>
-      <c r="F46" s="61">
-        <v>22</v>
-      </c>
-      <c r="G46" s="61"/>
+      <c r="F46" s="36">
+        <v>22</v>
+      </c>
+      <c r="G46" s="36"/>
       <c r="H46" s="28">
         <v>21</v>
       </c>
-      <c r="I46" s="61">
+      <c r="I46" s="36">
         <v>43</v>
       </c>
-      <c r="J46" s="61"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="28">
         <v>46</v>
       </c>
-      <c r="L46" s="61">
+      <c r="L46" s="36">
         <v>14</v>
       </c>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61">
+      <c r="M46" s="36"/>
+      <c r="N46" s="36">
         <v>60</v>
       </c>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61">
-        <v>22</v>
-      </c>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61">
-        <v>21</v>
-      </c>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61">
+      <c r="O46" s="36"/>
+      <c r="P46" s="36">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36">
+        <v>21</v>
+      </c>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36">
         <v>43</v>
       </c>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61">
+      <c r="V46" s="36"/>
+      <c r="W46" s="36">
         <v>39</v>
       </c>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61">
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36">
         <v>14</v>
       </c>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="61">
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36">
         <v>53</v>
       </c>
-      <c r="AB46" s="61"/>
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="61">
-        <v>21</v>
-      </c>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61">
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36">
+        <v>21</v>
+      </c>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36">
         <v>17</v>
       </c>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="62" t="s">
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="61">
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="36">
         <v>32</v>
       </c>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61">
+      <c r="AN46" s="36"/>
+      <c r="AO46" s="36">
         <v>16</v>
       </c>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61">
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="36">
         <v>48</v>
       </c>
-      <c r="AR46" s="61"/>
-      <c r="AS46" s="61">
-        <v>21</v>
-      </c>
-      <c r="AT46" s="61"/>
-      <c r="AU46" s="61"/>
-      <c r="AV46" s="61">
-        <v>20</v>
-      </c>
-      <c r="AW46" s="61"/>
-      <c r="AX46" s="61">
+      <c r="AR46" s="36"/>
+      <c r="AS46" s="36">
+        <v>21</v>
+      </c>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
+      <c r="AV46" s="36">
+        <v>20</v>
+      </c>
+      <c r="AW46" s="36"/>
+      <c r="AX46" s="36">
         <v>41</v>
       </c>
-      <c r="AY46" s="61"/>
-      <c r="AZ46" s="66">
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="37">
         <v>47</v>
       </c>
-      <c r="BA46" s="66"/>
-      <c r="BB46" s="66"/>
-      <c r="BC46" s="61">
-        <v>23</v>
-      </c>
-      <c r="BD46" s="61"/>
-      <c r="BE46" s="61"/>
-      <c r="BF46" s="61"/>
-      <c r="BG46" s="61">
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="36">
+        <v>23</v>
+      </c>
+      <c r="BD46" s="36"/>
+      <c r="BE46" s="36"/>
+      <c r="BF46" s="36"/>
+      <c r="BG46" s="36">
         <v>39</v>
       </c>
-      <c r="BH46" s="61"/>
-      <c r="BI46" s="61">
+      <c r="BH46" s="36"/>
+      <c r="BI46" s="36">
         <v>62</v>
       </c>
-      <c r="BJ46" s="61"/>
+      <c r="BJ46" s="36"/>
     </row>
     <row r="47" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="58"/>
+      <c r="A47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="39"/>
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
@@ -16929,371 +16926,371 @@
       <c r="E47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="58"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="58"/>
+      <c r="J47" s="39"/>
       <c r="K47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="55" t="s">
+      <c r="L47" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="55"/>
-      <c r="P47" s="58" t="s">
+      <c r="M47" s="40"/>
+      <c r="N47" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="40"/>
+      <c r="P47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="55" t="s">
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="55"/>
-      <c r="U47" s="58" t="s">
+      <c r="T47" s="40"/>
+      <c r="U47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="V47" s="58"/>
-      <c r="W47" s="55" t="s">
+      <c r="V47" s="39"/>
+      <c r="W47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55" t="s">
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="58" t="s">
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="58"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI47" s="58"/>
-      <c r="AJ47" s="55" t="s">
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN47" s="58"/>
-      <c r="AO47" s="55" t="s">
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55" t="s">
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AR47" s="55"/>
-      <c r="AS47" s="58" t="s">
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AT47" s="58"/>
-      <c r="AU47" s="58"/>
-      <c r="AV47" s="58" t="s">
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="58" t="s">
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AY47" s="58"/>
-      <c r="AZ47" s="55" t="s">
+      <c r="AY47" s="39"/>
+      <c r="AZ47" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BA47" s="55"/>
-      <c r="BB47" s="55"/>
-      <c r="BC47" s="58" t="s">
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BD47" s="58"/>
-      <c r="BE47" s="58"/>
-      <c r="BF47" s="58"/>
-      <c r="BG47" s="55" t="s">
+      <c r="BD47" s="39"/>
+      <c r="BE47" s="39"/>
+      <c r="BF47" s="39"/>
+      <c r="BG47" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BH47" s="55"/>
-      <c r="BI47" s="58" t="s">
+      <c r="BH47" s="40"/>
+      <c r="BI47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BJ47" s="58"/>
+      <c r="BJ47" s="39"/>
     </row>
     <row r="48" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="58"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="29">
         <v>6</v>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="61">
+      <c r="I48" s="36">
         <v>10</v>
       </c>
-      <c r="J48" s="61"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="27"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="66">
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="37">
         <v>7</v>
       </c>
-      <c r="O48" s="66"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="61">
+      <c r="O48" s="37"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="36">
         <v>10</v>
       </c>
-      <c r="V48" s="61"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="66">
+      <c r="V48" s="36"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="37">
         <v>6</v>
       </c>
-      <c r="AB48" s="66"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="49"/>
-      <c r="AI48" s="49"/>
-      <c r="AJ48" s="61">
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="36">
         <v>10</v>
       </c>
-      <c r="AK48" s="61"/>
-      <c r="AL48" s="61"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="66">
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="37">
         <v>5</v>
       </c>
-      <c r="AR48" s="66"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="49"/>
-      <c r="AW48" s="49"/>
-      <c r="AX48" s="61">
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="36">
         <v>10</v>
       </c>
-      <c r="AY48" s="61"/>
-      <c r="AZ48" s="66">
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="37">
         <v>10</v>
       </c>
-      <c r="BA48" s="66"/>
-      <c r="BB48" s="66"/>
-      <c r="BC48" s="49"/>
-      <c r="BD48" s="49"/>
-      <c r="BE48" s="49"/>
-      <c r="BF48" s="49"/>
-      <c r="BG48" s="49"/>
-      <c r="BH48" s="49"/>
-      <c r="BI48" s="61">
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="38"/>
+      <c r="BH48" s="38"/>
+      <c r="BI48" s="36">
         <v>10</v>
       </c>
-      <c r="BJ48" s="61"/>
+      <c r="BJ48" s="36"/>
     </row>
     <row r="49" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="29">
         <v>4</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="66">
+      <c r="I49" s="37">
         <v>1</v>
       </c>
-      <c r="J49" s="66"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="27"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="66">
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="37">
         <v>4</v>
       </c>
-      <c r="O49" s="66"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="66">
+      <c r="O49" s="37"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="37">
         <v>1</v>
       </c>
-      <c r="V49" s="66"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="66">
+      <c r="V49" s="37"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="37">
         <v>4</v>
       </c>
-      <c r="AB49" s="66"/>
-      <c r="AC49" s="66"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="49"/>
-      <c r="AI49" s="49"/>
-      <c r="AJ49" s="66">
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="37">
         <v>1</v>
       </c>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="49"/>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
-      <c r="AQ49" s="66">
+      <c r="AK49" s="37"/>
+      <c r="AL49" s="37"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="37">
         <v>4</v>
       </c>
-      <c r="AR49" s="66"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="49"/>
-      <c r="AU49" s="49"/>
-      <c r="AV49" s="49"/>
-      <c r="AW49" s="49"/>
-      <c r="AX49" s="61">
+      <c r="AR49" s="37"/>
+      <c r="AS49" s="38"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="38"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="36">
         <v>1</v>
       </c>
-      <c r="AY49" s="61"/>
-      <c r="AZ49" s="66">
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="37">
         <v>2</v>
       </c>
-      <c r="BA49" s="66"/>
-      <c r="BB49" s="66"/>
-      <c r="BC49" s="49"/>
-      <c r="BD49" s="49"/>
-      <c r="BE49" s="49"/>
-      <c r="BF49" s="49"/>
-      <c r="BG49" s="49"/>
-      <c r="BH49" s="49"/>
-      <c r="BI49" s="66">
+      <c r="BA49" s="37"/>
+      <c r="BB49" s="37"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
+      <c r="BF49" s="38"/>
+      <c r="BG49" s="38"/>
+      <c r="BH49" s="38"/>
+      <c r="BI49" s="37">
         <v>2</v>
       </c>
-      <c r="BJ49" s="66"/>
+      <c r="BJ49" s="37"/>
     </row>
     <row r="50" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28">
         <v>24</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="27"/>
-      <c r="I50" s="61">
+      <c r="I50" s="36">
         <v>10</v>
       </c>
-      <c r="J50" s="61"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="27"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="61">
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="36">
         <v>28</v>
       </c>
-      <c r="O50" s="61"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="61">
+      <c r="O50" s="36"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="36">
         <v>10</v>
       </c>
-      <c r="V50" s="61"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="61">
+      <c r="V50" s="36"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="36">
         <v>24</v>
       </c>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="49"/>
-      <c r="AJ50" s="61">
+      <c r="AB50" s="36"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="36">
         <v>10</v>
       </c>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="61">
-        <v>20</v>
-      </c>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="49"/>
-      <c r="AU50" s="49"/>
-      <c r="AV50" s="49"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="61">
+      <c r="AK50" s="36"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="36">
+        <v>20</v>
+      </c>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="36">
         <v>10</v>
       </c>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="66">
-        <v>20</v>
-      </c>
-      <c r="BA50" s="66"/>
-      <c r="BB50" s="66"/>
-      <c r="BC50" s="49"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="49"/>
-      <c r="BF50" s="49"/>
-      <c r="BG50" s="49"/>
-      <c r="BH50" s="49"/>
-      <c r="BI50" s="61">
-        <v>20</v>
-      </c>
-      <c r="BJ50" s="61"/>
+      <c r="AY50" s="36"/>
+      <c r="AZ50" s="37">
+        <v>20</v>
+      </c>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
+      <c r="BH50" s="38"/>
+      <c r="BI50" s="36">
+        <v>20</v>
+      </c>
+      <c r="BJ50" s="36"/>
     </row>
     <row r="51" spans="1:62" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -17352,18 +17349,235 @@
     </row>
   </sheetData>
   <mergeCells count="265">
-    <mergeCell ref="BG50:BH50"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="AS50:AU50"/>
-    <mergeCell ref="AV50:AW50"/>
-    <mergeCell ref="AX50:AY50"/>
-    <mergeCell ref="AZ50:BB50"/>
-    <mergeCell ref="BC50:BF50"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="AO50:AP50"/>
-    <mergeCell ref="AQ50:AR50"/>
+    <mergeCell ref="A18:BR18"/>
+    <mergeCell ref="A24:BQ24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="R25:AE25"/>
+    <mergeCell ref="AF25:AT25"/>
+    <mergeCell ref="AU25:AZ25"/>
+    <mergeCell ref="BA25:BE25"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A2:B14"/>
+    <mergeCell ref="AF2:AF14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="BA26:BE26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:BJ40"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AG41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="R26:AE26"/>
+    <mergeCell ref="AF26:AT26"/>
+    <mergeCell ref="AU26:AZ26"/>
+    <mergeCell ref="BG41:BH41"/>
+    <mergeCell ref="BI41:BJ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BB41"/>
+    <mergeCell ref="BC41:BF41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AX42:AY42"/>
+    <mergeCell ref="AZ42:BB42"/>
+    <mergeCell ref="BC42:BF42"/>
+    <mergeCell ref="BG42:BH42"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AQ42:AR42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AV42:AW42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="BG43:BH43"/>
+    <mergeCell ref="BI43:BJ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AQ43:AR43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AV43:AW43"/>
+    <mergeCell ref="AX43:AY43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AX44:AY44"/>
+    <mergeCell ref="AZ44:BB44"/>
+    <mergeCell ref="BC44:BF44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="AZ43:BB43"/>
+    <mergeCell ref="BC43:BF43"/>
+    <mergeCell ref="BI45:BJ45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:AR45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AV45:AW45"/>
+    <mergeCell ref="BG44:BH44"/>
+    <mergeCell ref="BI44:BJ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="AX45:AY45"/>
+    <mergeCell ref="AZ45:BB45"/>
+    <mergeCell ref="BC45:BF45"/>
+    <mergeCell ref="BG45:BH45"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="AQ47:AR47"/>
+    <mergeCell ref="AZ46:BB46"/>
+    <mergeCell ref="BC46:BF46"/>
+    <mergeCell ref="BG46:BH46"/>
+    <mergeCell ref="BI46:BJ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AX46:AY46"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="BG47:BH47"/>
+    <mergeCell ref="BI47:BJ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AS47:AU47"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AX47:AY47"/>
+    <mergeCell ref="AZ47:BB47"/>
+    <mergeCell ref="BC47:BF47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="AX48:AY48"/>
+    <mergeCell ref="AZ48:BB48"/>
+    <mergeCell ref="BC48:BF48"/>
+    <mergeCell ref="BG48:BH48"/>
+    <mergeCell ref="BI48:BJ48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AQ48:AR48"/>
+    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="AV48:AW48"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
     <mergeCell ref="AZ49:BB49"/>
     <mergeCell ref="BC49:BF49"/>
     <mergeCell ref="BG49:BH49"/>
@@ -17388,235 +17602,18 @@
     <mergeCell ref="AA49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="AX48:AY48"/>
-    <mergeCell ref="AZ48:BB48"/>
-    <mergeCell ref="BC48:BF48"/>
-    <mergeCell ref="BG48:BH48"/>
-    <mergeCell ref="BI48:BJ48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AQ48:AR48"/>
-    <mergeCell ref="AS48:AU48"/>
-    <mergeCell ref="AV48:AW48"/>
-    <mergeCell ref="BG47:BH47"/>
-    <mergeCell ref="BI47:BJ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AX47:AY47"/>
-    <mergeCell ref="AZ47:BB47"/>
-    <mergeCell ref="BC47:BF47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="AQ47:AR47"/>
-    <mergeCell ref="AZ46:BB46"/>
-    <mergeCell ref="BC46:BF46"/>
-    <mergeCell ref="BG46:BH46"/>
-    <mergeCell ref="BI46:BJ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AX46:AY46"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="AX45:AY45"/>
-    <mergeCell ref="AZ45:BB45"/>
-    <mergeCell ref="BC45:BF45"/>
-    <mergeCell ref="BG45:BH45"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="BI45:BJ45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:AR45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AV45:AW45"/>
-    <mergeCell ref="BG44:BH44"/>
-    <mergeCell ref="BI44:BJ44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:AY44"/>
-    <mergeCell ref="AZ44:BB44"/>
-    <mergeCell ref="BC44:BF44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="AZ43:BB43"/>
-    <mergeCell ref="BC43:BF43"/>
-    <mergeCell ref="BG43:BH43"/>
-    <mergeCell ref="BI43:BJ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AG44"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AQ43:AR43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AV43:AW43"/>
-    <mergeCell ref="AX43:AY43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="AZ42:BB42"/>
-    <mergeCell ref="BC42:BF42"/>
-    <mergeCell ref="BG42:BH42"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="AQ42:AR42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AV42:AW42"/>
-    <mergeCell ref="BI41:BJ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BB41"/>
-    <mergeCell ref="BC41:BF41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AX42:AY42"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="BA26:BE26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:BJ40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AG41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="R26:AE26"/>
-    <mergeCell ref="AF26:AT26"/>
-    <mergeCell ref="AU26:AZ26"/>
-    <mergeCell ref="BG41:BH41"/>
-    <mergeCell ref="A18:BR18"/>
-    <mergeCell ref="A24:BQ24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="R25:AE25"/>
-    <mergeCell ref="AF25:AT25"/>
-    <mergeCell ref="AU25:AZ25"/>
-    <mergeCell ref="BA25:BE25"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A2:B14"/>
-    <mergeCell ref="AF2:AF14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="BG50:BH50"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="AS50:AU50"/>
+    <mergeCell ref="AV50:AW50"/>
+    <mergeCell ref="AX50:AY50"/>
+    <mergeCell ref="AZ50:BB50"/>
+    <mergeCell ref="BC50:BF50"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AO50:AP50"/>
+    <mergeCell ref="AQ50:AR50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cleaned-Data/2017-Passouts/Sem-6_2017_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2017-Passouts/Sem-6_2017_Passout_cleaned.xlsx
@@ -1159,9 +1159,6 @@
     <t>GPA</t>
   </si>
   <si>
-    <t>Seat No.</t>
-  </si>
-  <si>
     <t>ABHISHEK TICKOO</t>
   </si>
   <si>
@@ -1619,6 +1616,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Sno</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1967,72 +1967,6 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2051,6 +1985,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2059,6 +2002,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2366,9 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2394,19 +2401,19 @@
     <col min="21" max="21" width="8" style="30" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="30" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="137" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>242</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>67</v>
@@ -2473,13 +2480,13 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="31">
+      <c r="A2" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="35">
         <v>0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="68">
         <v>166201</v>
       </c>
       <c r="D2" s="34">
@@ -2540,20 +2547,20 @@
         <v>36</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X2" s="33">
+        <v>240</v>
+      </c>
+      <c r="X2" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="32">
+      <c r="A3" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="68">
         <v>166202</v>
       </c>
       <c r="D3" s="35">
@@ -2616,18 +2623,18 @@
       <c r="W3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="67">
         <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="31">
+      <c r="A4" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="35">
         <v>0</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="68">
         <v>166203</v>
       </c>
       <c r="D4" s="35">
@@ -2690,18 +2697,18 @@
       <c r="W4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="67">
         <v>9.33</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="35">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="68">
         <v>166204</v>
       </c>
       <c r="D5" s="34">
@@ -2762,20 +2769,20 @@
         <v>36</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X5" s="33">
+        <v>240</v>
+      </c>
+      <c r="X5" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="68">
         <v>166205</v>
       </c>
       <c r="D6" s="35">
@@ -2838,18 +2845,18 @@
       <c r="W6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="67">
         <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="35">
         <v>0</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="68">
         <v>166206</v>
       </c>
       <c r="D7" s="35">
@@ -2912,18 +2919,18 @@
       <c r="W7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="67">
         <v>7.67</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="35">
         <v>0</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="68">
         <v>166207</v>
       </c>
       <c r="D8" s="35">
@@ -2986,18 +2993,18 @@
       <c r="W8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="67">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="35">
         <v>0</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="68">
         <v>166208</v>
       </c>
       <c r="D9" s="35">
@@ -3060,18 +3067,18 @@
       <c r="W9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X9" s="33">
+      <c r="X9" s="67">
         <v>9.67</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="35">
         <v>0</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="68">
         <v>166209</v>
       </c>
       <c r="D10" s="34">
@@ -3132,20 +3139,20 @@
         <v>36</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X10" s="33">
+        <v>240</v>
+      </c>
+      <c r="X10" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="35">
         <v>1</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="68">
         <v>166210</v>
       </c>
       <c r="D11" s="35">
@@ -3208,18 +3215,18 @@
       <c r="W11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="67">
         <v>9.58</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="A12" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="35">
         <v>1</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="68">
         <v>166211</v>
       </c>
       <c r="D12" s="35">
@@ -3282,18 +3289,18 @@
       <c r="W12" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="67">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="35">
         <v>1</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="68">
         <v>166212</v>
       </c>
       <c r="D13" s="35">
@@ -3356,18 +3363,18 @@
       <c r="W13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="67">
         <v>9.42</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="31">
+      <c r="A14" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="35">
         <v>0</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="68">
         <v>166213</v>
       </c>
       <c r="D14" s="35">
@@ -3430,18 +3437,18 @@
       <c r="W14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X14" s="33">
+      <c r="X14" s="67">
         <v>9.67</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="31">
+      <c r="A15" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="35">
         <v>0</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="68">
         <v>166214</v>
       </c>
       <c r="D15" s="35">
@@ -3504,18 +3511,18 @@
       <c r="W15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X15" s="67">
         <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="31">
+      <c r="A16" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="35">
         <v>0</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="68">
         <v>166215</v>
       </c>
       <c r="D16" s="35">
@@ -3578,18 +3585,18 @@
       <c r="W16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="67">
         <v>7.79</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="A17" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="35">
         <v>0</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="68">
         <v>166216</v>
       </c>
       <c r="D17" s="34">
@@ -3650,20 +3657,20 @@
         <v>0</v>
       </c>
       <c r="W17" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X17" s="33">
+        <v>240</v>
+      </c>
+      <c r="X17" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="31">
+      <c r="A18" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="35">
         <v>0</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="68">
         <v>166217</v>
       </c>
       <c r="D18" s="35">
@@ -3726,18 +3733,18 @@
       <c r="W18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X18" s="67">
         <v>7.33</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="A19" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="35">
         <v>0</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="68">
         <v>166218</v>
       </c>
       <c r="D19" s="35">
@@ -3800,18 +3807,18 @@
       <c r="W19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="67">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="35">
         <v>0</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="68">
         <v>166219</v>
       </c>
       <c r="D20" s="35">
@@ -3874,18 +3881,18 @@
       <c r="W20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X20" s="33">
+      <c r="X20" s="67">
         <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="A21" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="35">
         <v>1</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="68">
         <v>166220</v>
       </c>
       <c r="D21" s="34">
@@ -3946,20 +3953,20 @@
         <v>39</v>
       </c>
       <c r="W21" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X21" s="33">
+        <v>240</v>
+      </c>
+      <c r="X21" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="31">
+      <c r="A22" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="35">
         <v>0</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="68">
         <v>166221</v>
       </c>
       <c r="D22" s="35">
@@ -4022,18 +4029,18 @@
       <c r="W22" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X22" s="33">
+      <c r="X22" s="67">
         <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="31">
+      <c r="A23" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="35">
         <v>1</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="68">
         <v>166222</v>
       </c>
       <c r="D23" s="35">
@@ -4096,18 +4103,18 @@
       <c r="W23" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="33">
+      <c r="X23" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="31">
+      <c r="A24" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="35">
         <v>0</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="68">
         <v>166223</v>
       </c>
       <c r="D24" s="35">
@@ -4170,18 +4177,18 @@
       <c r="W24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X24" s="33">
+      <c r="X24" s="67">
         <v>7.33</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="31">
+      <c r="A25" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="35">
         <v>0</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="68">
         <v>166224</v>
       </c>
       <c r="D25" s="35">
@@ -4244,18 +4251,18 @@
       <c r="W25" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="67">
         <v>8.08</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="31">
+      <c r="A26" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="35">
         <v>0</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="68">
         <v>166225</v>
       </c>
       <c r="D26" s="34">
@@ -4316,20 +4323,20 @@
         <v>39</v>
       </c>
       <c r="W26" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X26" s="33">
+        <v>240</v>
+      </c>
+      <c r="X26" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="31">
+      <c r="A27" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="35">
         <v>0</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="68">
         <v>166226</v>
       </c>
       <c r="D27" s="35">
@@ -4392,18 +4399,18 @@
       <c r="W27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X27" s="33">
+      <c r="X27" s="67">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="31">
+      <c r="A28" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="35">
         <v>0</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="68">
         <v>166227</v>
       </c>
       <c r="D28" s="35">
@@ -4466,18 +4473,18 @@
       <c r="W28" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X28" s="33">
+      <c r="X28" s="67">
         <v>7.08</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="31">
+      <c r="A29" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="35">
         <v>0</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="68">
         <v>166228</v>
       </c>
       <c r="D29" s="35">
@@ -4540,18 +4547,18 @@
       <c r="W29" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X29" s="33">
+      <c r="X29" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="31">
+      <c r="A30" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="35">
         <v>0</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="68">
         <v>166229</v>
       </c>
       <c r="D30" s="35">
@@ -4614,18 +4621,18 @@
       <c r="W30" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X30" s="33">
+      <c r="X30" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="31">
+      <c r="A31" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="35">
         <v>1</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="68">
         <v>166230</v>
       </c>
       <c r="D31" s="35">
@@ -4688,18 +4695,18 @@
       <c r="W31" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X31" s="33">
+      <c r="X31" s="67">
         <v>8.92</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="31">
+      <c r="A32" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="35">
         <v>1</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="68">
         <v>166231</v>
       </c>
       <c r="D32" s="35">
@@ -4762,18 +4769,18 @@
       <c r="W32" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X32" s="33">
+      <c r="X32" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="31">
+      <c r="A33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="35">
         <v>1</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="68">
         <v>166232</v>
       </c>
       <c r="D33" s="35">
@@ -4836,18 +4843,18 @@
       <c r="W33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X33" s="33">
+      <c r="X33" s="67">
         <v>9.67</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="31">
+      <c r="A34" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="35">
         <v>0</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="68">
         <v>166233</v>
       </c>
       <c r="D34" s="35">
@@ -4910,18 +4917,18 @@
       <c r="W34" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X34" s="33">
+      <c r="X34" s="67">
         <v>9.17</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="31">
+      <c r="A35" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="35">
         <v>0</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="68">
         <v>166234</v>
       </c>
       <c r="D35" s="35">
@@ -4984,18 +4991,18 @@
       <c r="W35" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X35" s="33">
+      <c r="X35" s="67">
         <v>7.58</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="31">
+      <c r="A36" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="35">
         <v>1</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="68">
         <v>166235</v>
       </c>
       <c r="D36" s="35">
@@ -5058,18 +5065,18 @@
       <c r="W36" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X36" s="33">
+      <c r="X36" s="67">
         <v>7.96</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="31">
+      <c r="A37" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="35">
         <v>0</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="68">
         <v>166236</v>
       </c>
       <c r="D37" s="34">
@@ -5130,20 +5137,20 @@
         <v>33</v>
       </c>
       <c r="W37" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X37" s="33">
+        <v>240</v>
+      </c>
+      <c r="X37" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="31">
+      <c r="A38" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="35">
         <v>1</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="68">
         <v>166237</v>
       </c>
       <c r="D38" s="35">
@@ -5206,18 +5213,18 @@
       <c r="W38" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X38" s="33">
+      <c r="X38" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="31">
+      <c r="A39" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="35">
         <v>0</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="68">
         <v>166238</v>
       </c>
       <c r="D39" s="35">
@@ -5280,18 +5287,18 @@
       <c r="W39" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X39" s="33">
+      <c r="X39" s="67">
         <v>6.58</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="31">
+      <c r="A40" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="35">
         <v>0</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="68">
         <v>166239</v>
       </c>
       <c r="D40" s="35">
@@ -5354,18 +5361,18 @@
       <c r="W40" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X40" s="33">
+      <c r="X40" s="67">
         <v>9.5</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="31">
+      <c r="A41" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="35">
         <v>0</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="68">
         <v>166240</v>
       </c>
       <c r="D41" s="34">
@@ -5426,20 +5433,20 @@
         <v>36</v>
       </c>
       <c r="W41" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X41" s="33">
+        <v>240</v>
+      </c>
+      <c r="X41" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="31">
+      <c r="A42" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="35">
         <v>1</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="68">
         <v>166241</v>
       </c>
       <c r="D42" s="35">
@@ -5502,18 +5509,18 @@
       <c r="W42" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X42" s="33">
+      <c r="X42" s="67">
         <v>7.67</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="31">
+      <c r="A43" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="35">
         <v>0</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="68">
         <v>166242</v>
       </c>
       <c r="D43" s="35">
@@ -5576,18 +5583,18 @@
       <c r="W43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X43" s="33">
+      <c r="X43" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="31">
+      <c r="A44" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="35">
         <v>0</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="68">
         <v>166243</v>
       </c>
       <c r="D44" s="35">
@@ -5650,18 +5657,18 @@
       <c r="W44" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X44" s="33">
+      <c r="X44" s="67">
         <v>7.67</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="31">
+      <c r="A45" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="35">
         <v>0</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="68">
         <v>166244</v>
       </c>
       <c r="D45" s="35">
@@ -5724,18 +5731,18 @@
       <c r="W45" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X45" s="33">
+      <c r="X45" s="67">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="31">
+      <c r="A46" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="35">
         <v>0</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="68">
         <v>166245</v>
       </c>
       <c r="D46" s="35">
@@ -5798,18 +5805,18 @@
       <c r="W46" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X46" s="33">
+      <c r="X46" s="67">
         <v>7.75</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="31">
+      <c r="A47" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="35">
         <v>0</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="68">
         <v>166246</v>
       </c>
       <c r="D47" s="35">
@@ -5872,18 +5879,18 @@
       <c r="W47" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X47" s="33">
+      <c r="X47" s="67">
         <v>7.67</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="31">
+      <c r="A48" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="35">
         <v>0</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="68">
         <v>166247</v>
       </c>
       <c r="D48" s="35">
@@ -5946,18 +5953,18 @@
       <c r="W48" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X48" s="33">
+      <c r="X48" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="31">
+      <c r="A49" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="35">
         <v>0</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="68">
         <v>166248</v>
       </c>
       <c r="D49" s="34">
@@ -6018,20 +6025,20 @@
         <v>36</v>
       </c>
       <c r="W49" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X49" s="33">
+        <v>240</v>
+      </c>
+      <c r="X49" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="31">
+      <c r="A50" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="35">
         <v>1</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="68">
         <v>166249</v>
       </c>
       <c r="D50" s="35">
@@ -6094,18 +6101,18 @@
       <c r="W50" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X50" s="33">
+      <c r="X50" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="31">
+      <c r="A51" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="35">
         <v>0</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="68">
         <v>166250</v>
       </c>
       <c r="D51" s="35">
@@ -6168,18 +6175,18 @@
       <c r="W51" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X51" s="33">
+      <c r="X51" s="67">
         <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="31">
+      <c r="A52" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="35">
         <v>0</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="68">
         <v>166251</v>
       </c>
       <c r="D52" s="35">
@@ -6242,18 +6249,18 @@
       <c r="W52" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X52" s="33">
+      <c r="X52" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="31">
+      <c r="A53" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="35">
         <v>0</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="68">
         <v>166252</v>
       </c>
       <c r="D53" s="35">
@@ -6316,18 +6323,18 @@
       <c r="W53" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X53" s="33">
+      <c r="X53" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="31">
+      <c r="A54" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="35">
         <v>0</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="68">
         <v>166253</v>
       </c>
       <c r="D54" s="35">
@@ -6390,18 +6397,18 @@
       <c r="W54" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X54" s="33">
+      <c r="X54" s="67">
         <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="31">
+      <c r="A55" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="35">
         <v>1</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="68">
         <v>166254</v>
       </c>
       <c r="D55" s="35">
@@ -6464,18 +6471,18 @@
       <c r="W55" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X55" s="33">
+      <c r="X55" s="67">
         <v>9.83</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="31">
+      <c r="A56" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="35">
         <v>0</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="68">
         <v>166255</v>
       </c>
       <c r="D56" s="34">
@@ -6536,20 +6543,20 @@
         <v>41</v>
       </c>
       <c r="W56" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X56" s="33">
+        <v>240</v>
+      </c>
+      <c r="X56" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="31">
+      <c r="A57" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="35">
         <v>1</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="68">
         <v>166256</v>
       </c>
       <c r="D57" s="35">
@@ -6612,18 +6619,18 @@
       <c r="W57" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X57" s="33">
+      <c r="X57" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="31">
+      <c r="A58" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="35">
         <v>1</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="68">
         <v>166257</v>
       </c>
       <c r="D58" s="34">
@@ -6684,20 +6691,20 @@
         <v>44</v>
       </c>
       <c r="W58" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X58" s="33">
+        <v>240</v>
+      </c>
+      <c r="X58" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="31">
+      <c r="A59" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="35">
         <v>0</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="68">
         <v>166258</v>
       </c>
       <c r="D59" s="35">
@@ -6760,18 +6767,18 @@
       <c r="W59" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X59" s="33">
+      <c r="X59" s="67">
         <v>7.29</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="31">
+      <c r="A60" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="35">
         <v>0</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="68">
         <v>166259</v>
       </c>
       <c r="D60" s="35">
@@ -6834,18 +6841,18 @@
       <c r="W60" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X60" s="33">
+      <c r="X60" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="31">
+      <c r="A61" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="35">
         <v>0</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="68">
         <v>166260</v>
       </c>
       <c r="D61" s="34">
@@ -6906,20 +6913,20 @@
         <v>36</v>
       </c>
       <c r="W61" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X61" s="33">
+        <v>240</v>
+      </c>
+      <c r="X61" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="31">
+      <c r="A62" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="35">
         <v>0</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="68">
         <v>166261</v>
       </c>
       <c r="D62" s="35">
@@ -6982,18 +6989,18 @@
       <c r="W62" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X62" s="33">
+      <c r="X62" s="67">
         <v>7.21</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="31">
+      <c r="A63" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="35">
         <v>0</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="68">
         <v>166262</v>
       </c>
       <c r="D63" s="35">
@@ -7056,18 +7063,18 @@
       <c r="W63" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X63" s="33">
+      <c r="X63" s="67">
         <v>7.63</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="31">
+      <c r="A64" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="35">
         <v>1</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="68">
         <v>166263</v>
       </c>
       <c r="D64" s="35">
@@ -7130,18 +7137,18 @@
       <c r="W64" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X64" s="33">
+      <c r="X64" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="31">
+      <c r="A65" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="35">
         <v>0</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="68">
         <v>166264</v>
       </c>
       <c r="D65" s="35">
@@ -7204,18 +7211,18 @@
       <c r="W65" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X65" s="33">
+      <c r="X65" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="31">
+      <c r="A66" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="35">
         <v>0</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="68">
         <v>166265</v>
       </c>
       <c r="D66" s="35">
@@ -7278,18 +7285,18 @@
       <c r="W66" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X66" s="33">
+      <c r="X66" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="31">
+      <c r="A67" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="35">
         <v>0</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="68">
         <v>166266</v>
       </c>
       <c r="D67" s="35">
@@ -7352,18 +7359,18 @@
       <c r="W67" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X67" s="33">
+      <c r="X67" s="67">
         <v>8.17</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B68" s="31">
+      <c r="A68" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="35">
         <v>1</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="68">
         <v>166267</v>
       </c>
       <c r="D68" s="35">
@@ -7426,18 +7433,18 @@
       <c r="W68" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X68" s="33">
+      <c r="X68" s="67">
         <v>9.33</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A69" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="31">
+      <c r="A69" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="35">
         <v>0</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="68">
         <v>166268</v>
       </c>
       <c r="D69" s="35">
@@ -7500,18 +7507,18 @@
       <c r="W69" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X69" s="33">
+      <c r="X69" s="67">
         <v>9.67</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="31">
+      <c r="A70" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="35">
         <v>1</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="68">
         <v>166269</v>
       </c>
       <c r="D70" s="35">
@@ -7574,18 +7581,18 @@
       <c r="W70" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X70" s="33">
+      <c r="X70" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="31">
+      <c r="A71" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="35">
         <v>0</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="68">
         <v>166270</v>
       </c>
       <c r="D71" s="35">
@@ -7648,18 +7655,18 @@
       <c r="W71" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X71" s="33">
+      <c r="X71" s="67">
         <v>7.08</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A72" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="31">
+      <c r="A72" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="35">
         <v>0</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="68">
         <v>166271</v>
       </c>
       <c r="D72" s="35">
@@ -7722,18 +7729,18 @@
       <c r="W72" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X72" s="33">
+      <c r="X72" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="31">
+      <c r="A73" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="35">
         <v>0</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="68">
         <v>166272</v>
       </c>
       <c r="D73" s="35">
@@ -7796,18 +7803,18 @@
       <c r="W73" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X73" s="33">
+      <c r="X73" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="31">
+      <c r="A74" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="35">
         <v>0</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74" s="68">
         <v>166273</v>
       </c>
       <c r="D74" s="35">
@@ -7870,18 +7877,18 @@
       <c r="W74" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X74" s="33">
+      <c r="X74" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="31">
+      <c r="A75" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="35">
         <v>0</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="68">
         <v>166274</v>
       </c>
       <c r="D75" s="35">
@@ -7944,18 +7951,18 @@
       <c r="W75" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X75" s="33">
+      <c r="X75" s="67">
         <v>7.96</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="31">
+      <c r="A76" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="35">
         <v>0</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="68">
         <v>166275</v>
       </c>
       <c r="D76" s="35">
@@ -8018,18 +8025,18 @@
       <c r="W76" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X76" s="33">
+      <c r="X76" s="67">
         <v>8.25</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="31">
+      <c r="A77" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="35">
         <v>1</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="68">
         <v>166276</v>
       </c>
       <c r="D77" s="35">
@@ -8092,18 +8099,18 @@
       <c r="W77" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X77" s="33">
+      <c r="X77" s="67">
         <v>8.67</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="31">
+      <c r="A78" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="35">
         <v>1</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="68">
         <v>166277</v>
       </c>
       <c r="D78" s="35">
@@ -8166,18 +8173,18 @@
       <c r="W78" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X78" s="33">
+      <c r="X78" s="67">
         <v>7.25</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" s="31">
+      <c r="A79" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="35">
         <v>1</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="68">
         <v>166278</v>
       </c>
       <c r="D79" s="35">
@@ -8240,18 +8247,18 @@
       <c r="W79" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X79" s="33">
+      <c r="X79" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="31">
+      <c r="A80" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="35">
         <v>0</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="68">
         <v>166279</v>
       </c>
       <c r="D80" s="35">
@@ -8314,18 +8321,18 @@
       <c r="W80" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X80" s="33">
+      <c r="X80" s="67">
         <v>6.88</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="31">
+      <c r="A81" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="35">
         <v>0</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="68">
         <v>166280</v>
       </c>
       <c r="D81" s="34">
@@ -8386,20 +8393,20 @@
         <v>0</v>
       </c>
       <c r="W81" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X81" s="33">
+        <v>240</v>
+      </c>
+      <c r="X81" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="31">
+      <c r="A82" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="35">
         <v>1</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="68">
         <v>166286</v>
       </c>
       <c r="D82" s="35">
@@ -8462,18 +8469,18 @@
       <c r="W82" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X82" s="33">
+      <c r="X82" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="31">
+      <c r="A83" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="35">
         <v>0</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="68">
         <v>166287</v>
       </c>
       <c r="D83" s="35">
@@ -8536,18 +8543,18 @@
       <c r="W83" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X83" s="33">
+      <c r="X83" s="67">
         <v>6.67</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="31">
+      <c r="A84" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="35">
         <v>1</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="68">
         <v>166288</v>
       </c>
       <c r="D84" s="35">
@@ -8610,18 +8617,18 @@
       <c r="W84" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X84" s="33">
+      <c r="X84" s="67">
         <v>7.67</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="31">
+      <c r="A85" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="35">
         <v>1</v>
       </c>
-      <c r="C85" s="31">
+      <c r="C85" s="68">
         <v>166289</v>
       </c>
       <c r="D85" s="35">
@@ -8684,18 +8691,18 @@
       <c r="W85" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X85" s="33">
+      <c r="X85" s="67">
         <v>7.17</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="31">
+      <c r="A86" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="35">
         <v>0</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="68">
         <v>166290</v>
       </c>
       <c r="D86" s="35">
@@ -8758,18 +8765,18 @@
       <c r="W86" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X86" s="33">
+      <c r="X86" s="67">
         <v>8.92</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="31">
+      <c r="A87" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="35">
         <v>0</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="68">
         <v>166291</v>
       </c>
       <c r="D87" s="35">
@@ -8832,18 +8839,18 @@
       <c r="W87" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X87" s="33">
+      <c r="X87" s="67">
         <v>9.67</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="31">
+      <c r="A88" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="35">
         <v>0</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="68">
         <v>166292</v>
       </c>
       <c r="D88" s="35">
@@ -8906,18 +8913,18 @@
       <c r="W88" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X88" s="33">
+      <c r="X88" s="67">
         <v>9.5</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="31">
+      <c r="A89" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="35">
         <v>1</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="68">
         <v>166293</v>
       </c>
       <c r="D89" s="35">
@@ -8980,18 +8987,18 @@
       <c r="W89" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X89" s="33">
+      <c r="X89" s="67">
         <v>8.67</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="31">
+      <c r="A90" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="35">
         <v>0</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="68">
         <v>166294</v>
       </c>
       <c r="D90" s="35">
@@ -9054,18 +9061,18 @@
       <c r="W90" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X90" s="33">
+      <c r="X90" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="31">
+      <c r="A91" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="35">
         <v>0</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="68">
         <v>166295</v>
       </c>
       <c r="D91" s="34">
@@ -9126,20 +9133,20 @@
         <v>40</v>
       </c>
       <c r="W91" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X91" s="33">
+        <v>240</v>
+      </c>
+      <c r="X91" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="31">
+      <c r="A92" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="35">
         <v>0</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="68">
         <v>166301</v>
       </c>
       <c r="D92" s="35">
@@ -9202,18 +9209,18 @@
       <c r="W92" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X92" s="33">
+      <c r="X92" s="67">
         <v>8.67</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" s="31">
+      <c r="A93" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="35">
         <v>0</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="68">
         <v>166302</v>
       </c>
       <c r="D93" s="35">
@@ -9276,18 +9283,18 @@
       <c r="W93" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X93" s="33">
+      <c r="X93" s="67">
         <v>9.83</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" s="31">
+      <c r="A94" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="35">
         <v>0</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="68">
         <v>166303</v>
       </c>
       <c r="D94" s="35">
@@ -9350,18 +9357,18 @@
       <c r="W94" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X94" s="33">
+      <c r="X94" s="67">
         <v>6.29</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="31">
+      <c r="A95" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="35">
         <v>0</v>
       </c>
-      <c r="C95" s="31">
+      <c r="C95" s="68">
         <v>166304</v>
       </c>
       <c r="D95" s="35">
@@ -9424,18 +9431,18 @@
       <c r="W95" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X95" s="33">
+      <c r="X95" s="67">
         <v>7.54</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" s="31">
+      <c r="A96" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="35">
         <v>0</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="68">
         <v>166305</v>
       </c>
       <c r="D96" s="34">
@@ -9496,20 +9503,20 @@
         <v>39</v>
       </c>
       <c r="W96" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X96" s="33">
+        <v>240</v>
+      </c>
+      <c r="X96" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" s="31">
+      <c r="A97" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="35">
         <v>1</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="68">
         <v>166306</v>
       </c>
       <c r="D97" s="35">
@@ -9572,18 +9579,18 @@
       <c r="W97" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X97" s="33">
+      <c r="X97" s="67">
         <v>7.75</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B98" s="31">
+      <c r="A98" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="35">
         <v>0</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="68">
         <v>166307</v>
       </c>
       <c r="D98" s="34">
@@ -9644,20 +9651,20 @@
         <v>37</v>
       </c>
       <c r="W98" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X98" s="33">
+        <v>240</v>
+      </c>
+      <c r="X98" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" s="31">
+      <c r="A99" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="35">
         <v>0</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="68">
         <v>166308</v>
       </c>
       <c r="D99" s="35">
@@ -9720,18 +9727,18 @@
       <c r="W99" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X99" s="33">
+      <c r="X99" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B100" s="31">
+      <c r="A100" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="35">
         <v>0</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="68">
         <v>166309</v>
       </c>
       <c r="D100" s="35">
@@ -9794,18 +9801,18 @@
       <c r="W100" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X100" s="33">
+      <c r="X100" s="67">
         <v>6.42</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B101" s="31">
+      <c r="A101" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="35">
         <v>0</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="68">
         <v>166310</v>
       </c>
       <c r="D101" s="35">
@@ -9868,18 +9875,18 @@
       <c r="W101" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X101" s="33">
+      <c r="X101" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="31">
+      <c r="A102" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="35">
         <v>0</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="68">
         <v>166311</v>
       </c>
       <c r="D102" s="35">
@@ -9942,18 +9949,18 @@
       <c r="W102" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X102" s="33">
+      <c r="X102" s="67">
         <v>7.58</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" s="31">
+      <c r="A103" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="35">
         <v>0</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="68">
         <v>166312</v>
       </c>
       <c r="D103" s="35">
@@ -10016,18 +10023,18 @@
       <c r="W103" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X103" s="33">
+      <c r="X103" s="67">
         <v>7.33</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="31">
+      <c r="A104" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="35">
         <v>1</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="68">
         <v>166313</v>
       </c>
       <c r="D104" s="35">
@@ -10090,18 +10097,18 @@
       <c r="W104" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X104" s="33">
+      <c r="X104" s="67">
         <v>8.17</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" s="31">
+      <c r="A105" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="35">
         <v>1</v>
       </c>
-      <c r="C105" s="31">
+      <c r="C105" s="68">
         <v>166314</v>
       </c>
       <c r="D105" s="35">
@@ -10164,18 +10171,18 @@
       <c r="W105" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X105" s="33">
+      <c r="X105" s="67">
         <v>7.5</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B106" s="31">
+      <c r="A106" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="35">
         <v>0</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="68">
         <v>166315</v>
       </c>
       <c r="D106" s="34">
@@ -10236,20 +10243,20 @@
         <v>39</v>
       </c>
       <c r="W106" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X106" s="33">
+        <v>240</v>
+      </c>
+      <c r="X106" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B107" s="31">
+      <c r="A107" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="35">
         <v>1</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="68">
         <v>166316</v>
       </c>
       <c r="D107" s="35">
@@ -10312,18 +10319,18 @@
       <c r="W107" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X107" s="33">
+      <c r="X107" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B108" s="31">
+      <c r="A108" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="35">
         <v>0</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="68">
         <v>166317</v>
       </c>
       <c r="D108" s="35">
@@ -10386,18 +10393,18 @@
       <c r="W108" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X108" s="33">
+      <c r="X108" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="B109" s="31">
+      <c r="A109" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="35">
         <v>0</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="68">
         <v>166318</v>
       </c>
       <c r="D109" s="35">
@@ -10460,18 +10467,18 @@
       <c r="W109" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X109" s="33">
+      <c r="X109" s="67">
         <v>9.17</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="31">
+      <c r="A110" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="35">
         <v>1</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="68">
         <v>166319</v>
       </c>
       <c r="D110" s="35">
@@ -10534,18 +10541,18 @@
       <c r="W110" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X110" s="33">
+      <c r="X110" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" s="31">
+      <c r="A111" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="35">
         <v>0</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="68">
         <v>166320</v>
       </c>
       <c r="D111" s="35">
@@ -10608,18 +10615,18 @@
       <c r="W111" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X111" s="33">
+      <c r="X111" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="31">
+      <c r="A112" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="35">
         <v>1</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="68">
         <v>166321</v>
       </c>
       <c r="D112" s="35">
@@ -10682,18 +10689,18 @@
       <c r="W112" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X112" s="33">
+      <c r="X112" s="67">
         <v>8.17</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" s="31">
+      <c r="A113" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="35">
         <v>0</v>
       </c>
-      <c r="C113" s="31">
+      <c r="C113" s="68">
         <v>166322</v>
       </c>
       <c r="D113" s="35">
@@ -10756,18 +10763,18 @@
       <c r="W113" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X113" s="33">
+      <c r="X113" s="67">
         <v>8.33</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B114" s="31">
+      <c r="A114" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="35">
         <v>0</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="68">
         <v>166323</v>
       </c>
       <c r="D114" s="35">
@@ -10830,18 +10837,18 @@
       <c r="W114" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X114" s="33">
+      <c r="X114" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A115" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B115" s="31">
+      <c r="A115" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="35">
         <v>0</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="68">
         <v>166324</v>
       </c>
       <c r="D115" s="35">
@@ -10904,18 +10911,18 @@
       <c r="W115" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X115" s="33">
+      <c r="X115" s="67">
         <v>7.88</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="31">
+      <c r="A116" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="35">
         <v>1</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="68">
         <v>166325</v>
       </c>
       <c r="D116" s="35">
@@ -10978,18 +10985,18 @@
       <c r="W116" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X116" s="33">
+      <c r="X116" s="67">
         <v>9.5</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="31">
+      <c r="A117" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="35">
         <v>0</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="68">
         <v>166326</v>
       </c>
       <c r="D117" s="35">
@@ -11052,18 +11059,18 @@
       <c r="W117" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X117" s="33">
+      <c r="X117" s="67">
         <v>7.5</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="31">
+      <c r="A118" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" s="35">
         <v>0</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="68">
         <v>166327</v>
       </c>
       <c r="D118" s="35">
@@ -11126,18 +11133,18 @@
       <c r="W118" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X118" s="33">
+      <c r="X118" s="67">
         <v>7.08</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="31">
+      <c r="A119" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="35">
         <v>1</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="68">
         <v>166328</v>
       </c>
       <c r="D119" s="35">
@@ -11200,18 +11207,18 @@
       <c r="W119" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X119" s="33">
+      <c r="X119" s="67">
         <v>7.5</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="31">
+      <c r="A120" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" s="35">
         <v>0</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="68">
         <v>166329</v>
       </c>
       <c r="D120" s="35">
@@ -11274,18 +11281,18 @@
       <c r="W120" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X120" s="33">
+      <c r="X120" s="67">
         <v>7.75</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A121" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="31">
+      <c r="A121" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="35">
         <v>1</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="68">
         <v>166330</v>
       </c>
       <c r="D121" s="35">
@@ -11348,16 +11355,16 @@
       <c r="W121" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X121" s="33">
+      <c r="X121" s="67">
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A122" s="31" t="s">
-        <v>210</v>
+      <c r="A122" s="68" t="s">
+        <v>209</v>
       </c>
       <c r="B122" s="31"/>
-      <c r="C122" s="31">
+      <c r="C122" s="68">
         <v>166331</v>
       </c>
       <c r="D122" s="35">
@@ -11420,16 +11427,16 @@
       <c r="W122" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X122" s="33">
+      <c r="X122" s="67">
         <v>9.33</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="31" t="s">
-        <v>211</v>
+      <c r="A123" s="68" t="s">
+        <v>210</v>
       </c>
       <c r="B123" s="31"/>
-      <c r="C123" s="31">
+      <c r="C123" s="68">
         <v>166332</v>
       </c>
       <c r="D123" s="35">
@@ -11492,16 +11499,16 @@
       <c r="W123" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X123" s="33">
+      <c r="X123" s="67">
         <v>9.33</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="31" t="s">
-        <v>212</v>
+      <c r="A124" s="68" t="s">
+        <v>211</v>
       </c>
       <c r="B124" s="31"/>
-      <c r="C124" s="31">
+      <c r="C124" s="68">
         <v>166333</v>
       </c>
       <c r="D124" s="35">
@@ -11564,16 +11571,16 @@
       <c r="W124" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X124" s="33">
+      <c r="X124" s="67">
         <v>9.5</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A125" s="31" t="s">
-        <v>213</v>
+      <c r="A125" s="68" t="s">
+        <v>212</v>
       </c>
       <c r="B125" s="31"/>
-      <c r="C125" s="31">
+      <c r="C125" s="68">
         <v>166334</v>
       </c>
       <c r="D125" s="35">
@@ -11636,16 +11643,16 @@
       <c r="W125" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X125" s="33">
+      <c r="X125" s="67">
         <v>9.92</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A126" s="31" t="s">
-        <v>214</v>
+      <c r="A126" s="68" t="s">
+        <v>213</v>
       </c>
       <c r="B126" s="31"/>
-      <c r="C126" s="31">
+      <c r="C126" s="68">
         <v>166335</v>
       </c>
       <c r="D126" s="35">
@@ -11708,16 +11715,16 @@
       <c r="W126" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X126" s="33">
+      <c r="X126" s="67">
         <v>9.33</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A127" s="31" t="s">
-        <v>215</v>
+      <c r="A127" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="B127" s="31"/>
-      <c r="C127" s="31">
+      <c r="C127" s="68">
         <v>166336</v>
       </c>
       <c r="D127" s="35">
@@ -11780,16 +11787,16 @@
       <c r="W127" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X127" s="33">
+      <c r="X127" s="67">
         <v>7.29</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A128" s="31" t="s">
-        <v>216</v>
+      <c r="A128" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="B128" s="31"/>
-      <c r="C128" s="31">
+      <c r="C128" s="68">
         <v>166337</v>
       </c>
       <c r="D128" s="35">
@@ -11852,16 +11859,16 @@
       <c r="W128" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X128" s="33">
+      <c r="X128" s="67">
         <v>8.17</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A129" s="31" t="s">
-        <v>217</v>
+      <c r="A129" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="B129" s="31"/>
-      <c r="C129" s="31">
+      <c r="C129" s="68">
         <v>166338</v>
       </c>
       <c r="D129" s="35">
@@ -11924,16 +11931,16 @@
       <c r="W129" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X129" s="33">
+      <c r="X129" s="67">
         <v>7.25</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A130" s="31" t="s">
-        <v>218</v>
+      <c r="A130" s="68" t="s">
+        <v>217</v>
       </c>
       <c r="B130" s="31"/>
-      <c r="C130" s="31">
+      <c r="C130" s="68">
         <v>166339</v>
       </c>
       <c r="D130" s="34">
@@ -11994,18 +12001,18 @@
         <v>39</v>
       </c>
       <c r="W130" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X130" s="33">
+        <v>240</v>
+      </c>
+      <c r="X130" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A131" s="31" t="s">
-        <v>219</v>
+      <c r="A131" s="68" t="s">
+        <v>218</v>
       </c>
       <c r="B131" s="31"/>
-      <c r="C131" s="31">
+      <c r="C131" s="68">
         <v>166340</v>
       </c>
       <c r="D131" s="35">
@@ -12068,16 +12075,16 @@
       <c r="W131" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X131" s="33">
+      <c r="X131" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A132" s="31" t="s">
-        <v>220</v>
+      <c r="A132" s="68" t="s">
+        <v>219</v>
       </c>
       <c r="B132" s="31"/>
-      <c r="C132" s="31">
+      <c r="C132" s="68">
         <v>166341</v>
       </c>
       <c r="D132" s="34">
@@ -12138,18 +12145,18 @@
         <v>39</v>
       </c>
       <c r="W132" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X132" s="33">
+        <v>240</v>
+      </c>
+      <c r="X132" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A133" s="31" t="s">
-        <v>221</v>
+      <c r="A133" s="68" t="s">
+        <v>220</v>
       </c>
       <c r="B133" s="31"/>
-      <c r="C133" s="31">
+      <c r="C133" s="68">
         <v>166342</v>
       </c>
       <c r="D133" s="35">
@@ -12212,16 +12219,16 @@
       <c r="W133" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X133" s="33">
+      <c r="X133" s="67">
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A134" s="31" t="s">
-        <v>222</v>
+      <c r="A134" s="68" t="s">
+        <v>221</v>
       </c>
       <c r="B134" s="31"/>
-      <c r="C134" s="31">
+      <c r="C134" s="68">
         <v>166343</v>
       </c>
       <c r="D134" s="35">
@@ -12284,16 +12291,16 @@
       <c r="W134" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X134" s="33">
+      <c r="X134" s="67">
         <v>7.83</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A135" s="31" t="s">
-        <v>223</v>
+      <c r="A135" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="B135" s="31"/>
-      <c r="C135" s="31">
+      <c r="C135" s="68">
         <v>166344</v>
       </c>
       <c r="D135" s="35">
@@ -12356,16 +12363,16 @@
       <c r="W135" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X135" s="33">
+      <c r="X135" s="67">
         <v>8.67</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A136" s="31" t="s">
-        <v>224</v>
+      <c r="A136" s="68" t="s">
+        <v>223</v>
       </c>
       <c r="B136" s="31"/>
-      <c r="C136" s="31">
+      <c r="C136" s="68">
         <v>166345</v>
       </c>
       <c r="D136" s="35">
@@ -12428,16 +12435,16 @@
       <c r="W136" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X136" s="33">
+      <c r="X136" s="67">
         <v>7.88</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A137" s="31" t="s">
-        <v>225</v>
+      <c r="A137" s="68" t="s">
+        <v>224</v>
       </c>
       <c r="B137" s="31"/>
-      <c r="C137" s="31">
+      <c r="C137" s="68">
         <v>166346</v>
       </c>
       <c r="D137" s="35">
@@ -12500,16 +12507,16 @@
       <c r="W137" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X137" s="33">
+      <c r="X137" s="67">
         <v>8.83</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
-        <v>226</v>
+      <c r="A138" s="68" t="s">
+        <v>225</v>
       </c>
       <c r="B138" s="31"/>
-      <c r="C138" s="31">
+      <c r="C138" s="68">
         <v>166347</v>
       </c>
       <c r="D138" s="35">
@@ -12572,16 +12579,16 @@
       <c r="W138" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X138" s="33">
+      <c r="X138" s="67">
         <v>8.5</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A139" s="31" t="s">
-        <v>227</v>
+      <c r="A139" s="68" t="s">
+        <v>226</v>
       </c>
       <c r="B139" s="31"/>
-      <c r="C139" s="31">
+      <c r="C139" s="68">
         <v>166348</v>
       </c>
       <c r="D139" s="34">
@@ -12644,16 +12651,16 @@
       <c r="W139" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X139" s="33">
+      <c r="X139" s="67">
         <v>7.17</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A140" s="31" t="s">
-        <v>228</v>
+      <c r="A140" s="68" t="s">
+        <v>227</v>
       </c>
       <c r="B140" s="31"/>
-      <c r="C140" s="31">
+      <c r="C140" s="68">
         <v>166349</v>
       </c>
       <c r="D140" s="34">
@@ -12714,18 +12721,18 @@
         <v>41</v>
       </c>
       <c r="W140" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X140" s="33">
+        <v>240</v>
+      </c>
+      <c r="X140" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A141" s="31" t="s">
-        <v>229</v>
+      <c r="A141" s="68" t="s">
+        <v>228</v>
       </c>
       <c r="B141" s="31"/>
-      <c r="C141" s="31">
+      <c r="C141" s="68">
         <v>166350</v>
       </c>
       <c r="D141" s="34">
@@ -12786,19 +12793,19 @@
         <v>47</v>
       </c>
       <c r="W141" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X141" s="33">
+        <v>240</v>
+      </c>
+      <c r="X141" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B142" s="31"/>
+      <c r="C142" s="68" t="s">
         <v>230</v>
-      </c>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="D142" s="34">
         <v>33</v>
@@ -12858,19 +12865,19 @@
         <v>39</v>
       </c>
       <c r="W142" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X142" s="33">
+        <v>240</v>
+      </c>
+      <c r="X142" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" s="31"/>
+      <c r="C143" s="68" t="s">
         <v>232</v>
-      </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="D143" s="34">
         <v>32</v>
@@ -12930,19 +12937,19 @@
         <v>39</v>
       </c>
       <c r="W143" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X143" s="33">
+        <v>240</v>
+      </c>
+      <c r="X143" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" s="31"/>
+      <c r="C144" s="68" t="s">
         <v>234</v>
-      </c>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31" t="s">
-        <v>235</v>
       </c>
       <c r="D144" s="35">
         <v>33</v>
@@ -13004,17 +13011,17 @@
       <c r="W144" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X144" s="33">
+      <c r="X144" s="67">
         <v>5.75</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A145" s="31" t="s">
+      <c r="A145" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="31"/>
+      <c r="C145" s="68" t="s">
         <v>236</v>
-      </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31" t="s">
-        <v>237</v>
       </c>
       <c r="D145" s="34">
         <v>32</v>
@@ -13074,19 +13081,19 @@
         <v>40</v>
       </c>
       <c r="W145" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X145" s="33">
+        <v>240</v>
+      </c>
+      <c r="X145" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" s="31"/>
+      <c r="C146" s="68" t="s">
         <v>238</v>
-      </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31" t="s">
-        <v>239</v>
       </c>
       <c r="D146" s="35">
         <v>43</v>
@@ -13148,7 +13155,7 @@
       <c r="W146" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="X146" s="33">
+      <c r="X146" s="67">
         <v>7.17</v>
       </c>
     </row>
@@ -13207,10 +13214,10 @@
       <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
@@ -13220,10 +13227,10 @@
       <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13236,10 +13243,10 @@
       <c r="M1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="59"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13252,10 +13259,10 @@
       <c r="S1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="59"/>
+      <c r="U1" s="37"/>
       <c r="V1" s="17" t="s">
         <v>55</v>
       </c>
@@ -13268,29 +13275,29 @@
       <c r="Y1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="59"/>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AD1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="59"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
@@ -13378,13 +13385,13 @@
       <c r="AE2" s="23">
         <v>75</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -13414,11 +13421,11 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
-      <c r="AF3" s="61"/>
+      <c r="AF3" s="39"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -13448,11 +13455,11 @@
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="61"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -13482,11 +13489,11 @@
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="61"/>
+      <c r="AF5" s="39"/>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -13516,11 +13523,11 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="61"/>
+      <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -13550,11 +13557,11 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="61"/>
+      <c r="AF7" s="39"/>
     </row>
     <row r="8" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -13584,11 +13591,11 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="61"/>
+      <c r="AF8" s="39"/>
     </row>
     <row r="9" spans="1:32" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -13618,11 +13625,11 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="61"/>
+      <c r="AF9" s="39"/>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -13652,11 +13659,11 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="61"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -13686,11 +13693,11 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="61"/>
+      <c r="AF11" s="39"/>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -13720,11 +13727,11 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
-      <c r="AF12" s="61"/>
+      <c r="AF12" s="39"/>
     </row>
     <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -13754,11 +13761,11 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="61"/>
+      <c r="AF13" s="39"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -13788,11 +13795,11 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="61"/>
+      <c r="AF14" s="39"/>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -13822,11 +13829,11 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
-      <c r="AF15" s="61"/>
+      <c r="AF15" s="39"/>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -13856,11 +13863,11 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
-      <c r="AF16" s="61"/>
+      <c r="AF16" s="39"/>
     </row>
     <row r="17" spans="1:70" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -13890,11 +13897,11 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
-      <c r="AF17" s="61"/>
+      <c r="AF17" s="39"/>
     </row>
     <row r="18" spans="1:70" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -13924,11 +13931,11 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
-      <c r="AF18" s="61"/>
+      <c r="AF18" s="39"/>
     </row>
     <row r="19" spans="1:70" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -13958,81 +13965,81 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
-      <c r="AF19" s="61"/>
+      <c r="AF19" s="39"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
-      <c r="AU25" s="38"/>
-      <c r="AV25" s="38"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="38"/>
-      <c r="AY25" s="38"/>
-      <c r="AZ25" s="38"/>
-      <c r="BA25" s="38"/>
-      <c r="BB25" s="38"/>
-      <c r="BC25" s="38"/>
-      <c r="BD25" s="38"/>
-      <c r="BE25" s="38"/>
-      <c r="BF25" s="38"/>
-      <c r="BG25" s="38"/>
-      <c r="BH25" s="38"/>
-      <c r="BI25" s="38"/>
-      <c r="BJ25" s="38"/>
-      <c r="BK25" s="38"/>
-      <c r="BL25" s="38"/>
-      <c r="BM25" s="38"/>
-      <c r="BN25" s="38"/>
-      <c r="BO25" s="38"/>
-      <c r="BP25" s="38"/>
-      <c r="BQ25" s="38"/>
-      <c r="BR25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="49"/>
+      <c r="BR25" s="50"/>
     </row>
     <row r="26" spans="1:70" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -14060,219 +14067,219 @@
       </c>
     </row>
     <row r="31" spans="1:70" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
-      <c r="BP31" s="49"/>
-      <c r="BQ31" s="50"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="52"/>
+      <c r="BG31" s="52"/>
+      <c r="BH31" s="52"/>
+      <c r="BI31" s="52"/>
+      <c r="BJ31" s="52"/>
+      <c r="BK31" s="52"/>
+      <c r="BL31" s="52"/>
+      <c r="BM31" s="52"/>
+      <c r="BN31" s="52"/>
+      <c r="BO31" s="52"/>
+      <c r="BP31" s="52"/>
+      <c r="BQ31" s="53"/>
     </row>
     <row r="32" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="51" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="51" t="s">
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="51" t="s">
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="53" t="s">
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="54"/>
-      <c r="BA32" s="53" t="s">
+      <c r="AV32" s="58"/>
+      <c r="AW32" s="58"/>
+      <c r="AX32" s="58"/>
+      <c r="AY32" s="58"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="39"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="54"/>
+      <c r="BB32" s="58"/>
+      <c r="BC32" s="58"/>
+      <c r="BD32" s="58"/>
+      <c r="BE32" s="59"/>
     </row>
     <row r="33" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="64" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="64" t="s">
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="44" t="s">
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="44" t="s">
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="55" t="s">
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="57"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="62"/>
     </row>
     <row r="34" spans="1:62" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -14340,142 +14347,142 @@
       </c>
     </row>
     <row r="47" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="41"/>
-      <c r="AZ47" s="41"/>
-      <c r="BA47" s="41"/>
-      <c r="BB47" s="41"/>
-      <c r="BC47" s="41"/>
-      <c r="BD47" s="41"/>
-      <c r="BE47" s="41"/>
-      <c r="BF47" s="41"/>
-      <c r="BG47" s="41"/>
-      <c r="BH47" s="41"/>
-      <c r="BI47" s="41"/>
-      <c r="BJ47" s="41"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="43"/>
+      <c r="AJ47" s="43"/>
+      <c r="AK47" s="43"/>
+      <c r="AL47" s="43"/>
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="43"/>
+      <c r="AP47" s="43"/>
+      <c r="AQ47" s="43"/>
+      <c r="AR47" s="43"/>
+      <c r="AS47" s="43"/>
+      <c r="AT47" s="43"/>
+      <c r="AU47" s="43"/>
+      <c r="AV47" s="43"/>
+      <c r="AW47" s="43"/>
+      <c r="AX47" s="43"/>
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="43"/>
+      <c r="BA47" s="43"/>
+      <c r="BB47" s="43"/>
+      <c r="BC47" s="43"/>
+      <c r="BD47" s="43"/>
+      <c r="BE47" s="43"/>
+      <c r="BF47" s="43"/>
+      <c r="BG47" s="43"/>
+      <c r="BH47" s="43"/>
+      <c r="BI47" s="43"/>
+      <c r="BJ47" s="43"/>
     </row>
     <row r="48" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-      <c r="BH48" s="42"/>
-      <c r="BI48" s="42"/>
-      <c r="BJ48" s="42"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="63"/>
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="63"/>
+      <c r="AN48" s="63"/>
+      <c r="AO48" s="63"/>
+      <c r="AP48" s="63"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+      <c r="AT48" s="63"/>
+      <c r="AU48" s="63"/>
+      <c r="AV48" s="63"/>
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63"/>
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="63"/>
+      <c r="BC48" s="63"/>
+      <c r="BD48" s="63"/>
+      <c r="BE48" s="63"/>
+      <c r="BF48" s="63"/>
+      <c r="BG48" s="63"/>
+      <c r="BH48" s="63"/>
+      <c r="BI48" s="63"/>
+      <c r="BJ48" s="63"/>
     </row>
     <row r="49" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="28">
         <v>49</v>
       </c>
@@ -14485,119 +14492,119 @@
       <c r="E49" s="28">
         <v>62</v>
       </c>
-      <c r="F49" s="36">
-        <v>22</v>
-      </c>
-      <c r="G49" s="36"/>
+      <c r="F49" s="64">
+        <v>22</v>
+      </c>
+      <c r="G49" s="64"/>
       <c r="H49" s="28">
         <v>21</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="64">
         <v>43</v>
       </c>
-      <c r="J49" s="36"/>
+      <c r="J49" s="64"/>
       <c r="K49" s="28">
         <v>46</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="64">
         <v>16</v>
       </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36">
+      <c r="M49" s="64"/>
+      <c r="N49" s="64">
         <v>62</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36">
-        <v>20</v>
-      </c>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36">
+      <c r="O49" s="64"/>
+      <c r="P49" s="64">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64">
+        <v>20</v>
+      </c>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64">
         <v>40</v>
       </c>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36">
+      <c r="V49" s="64"/>
+      <c r="W49" s="64">
         <v>39</v>
       </c>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36">
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64">
         <v>13</v>
       </c>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36">
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64">
         <v>52</v>
       </c>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36">
-        <v>21</v>
-      </c>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36">
-        <v>21</v>
-      </c>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36">
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64">
+        <v>21</v>
+      </c>
+      <c r="AD49" s="64"/>
+      <c r="AE49" s="64"/>
+      <c r="AF49" s="64"/>
+      <c r="AG49" s="64"/>
+      <c r="AH49" s="64">
+        <v>21</v>
+      </c>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="64">
         <v>42</v>
       </c>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36">
+      <c r="AK49" s="64"/>
+      <c r="AL49" s="64">
         <v>33</v>
       </c>
-      <c r="AM49" s="36"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="36">
+      <c r="AM49" s="64"/>
+      <c r="AN49" s="64"/>
+      <c r="AO49" s="64">
         <v>13</v>
       </c>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="36">
+      <c r="AP49" s="64"/>
+      <c r="AQ49" s="64">
         <v>46</v>
       </c>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="36">
+      <c r="AR49" s="64"/>
+      <c r="AS49" s="64">
         <v>19</v>
       </c>
-      <c r="AT49" s="36"/>
-      <c r="AU49" s="36"/>
-      <c r="AV49" s="36">
-        <v>20</v>
-      </c>
-      <c r="AW49" s="36"/>
-      <c r="AX49" s="43" t="s">
+      <c r="AT49" s="64"/>
+      <c r="AU49" s="64"/>
+      <c r="AV49" s="64">
+        <v>20</v>
+      </c>
+      <c r="AW49" s="64"/>
+      <c r="AX49" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AY49" s="43"/>
-      <c r="AZ49" s="39" t="s">
+      <c r="AY49" s="65"/>
+      <c r="AZ49" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="BA49" s="39"/>
-      <c r="BB49" s="39"/>
-      <c r="BC49" s="39"/>
-      <c r="BD49" s="36">
-        <v>22</v>
-      </c>
-      <c r="BE49" s="36"/>
-      <c r="BF49" s="36"/>
-      <c r="BG49" s="36">
+      <c r="BA49" s="58"/>
+      <c r="BB49" s="58"/>
+      <c r="BC49" s="58"/>
+      <c r="BD49" s="64">
+        <v>22</v>
+      </c>
+      <c r="BE49" s="64"/>
+      <c r="BF49" s="64"/>
+      <c r="BG49" s="64">
         <v>39</v>
       </c>
-      <c r="BH49" s="36"/>
-      <c r="BI49" s="36">
+      <c r="BH49" s="64"/>
+      <c r="BI49" s="64">
         <v>61</v>
       </c>
-      <c r="BJ49" s="36"/>
+      <c r="BJ49" s="64"/>
     </row>
     <row r="50" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="39"/>
+      <c r="A50" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="58"/>
       <c r="C50" s="26" t="s">
         <v>22</v>
       </c>
@@ -14607,371 +14614,371 @@
       <c r="E50" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="39"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="39"/>
+      <c r="J50" s="58"/>
       <c r="K50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="40" t="s">
+      <c r="L50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="40"/>
-      <c r="P50" s="39" t="s">
+      <c r="M50" s="55"/>
+      <c r="N50" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="55"/>
+      <c r="P50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40" t="s">
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="40"/>
-      <c r="U50" s="39" t="s">
+      <c r="T50" s="55"/>
+      <c r="U50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="V50" s="39"/>
-      <c r="W50" s="40" t="s">
+      <c r="V50" s="58"/>
+      <c r="W50" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="39" t="s">
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="40" t="s">
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="39" t="s">
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM50" s="40"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP50" s="40"/>
-      <c r="AQ50" s="40" t="s">
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AR50" s="40"/>
-      <c r="AS50" s="39" t="s">
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AT50" s="39"/>
-      <c r="AU50" s="39"/>
-      <c r="AV50" s="39" t="s">
+      <c r="AT50" s="58"/>
+      <c r="AU50" s="58"/>
+      <c r="AV50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AW50" s="39"/>
-      <c r="AX50" s="39" t="s">
+      <c r="AW50" s="58"/>
+      <c r="AX50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AY50" s="39"/>
-      <c r="AZ50" s="40" t="s">
+      <c r="AY50" s="58"/>
+      <c r="AZ50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="BA50" s="40"/>
-      <c r="BB50" s="40"/>
-      <c r="BC50" s="40"/>
-      <c r="BD50" s="39" t="s">
+      <c r="BA50" s="55"/>
+      <c r="BB50" s="55"/>
+      <c r="BC50" s="55"/>
+      <c r="BD50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BE50" s="39"/>
-      <c r="BF50" s="39"/>
-      <c r="BG50" s="40" t="s">
+      <c r="BE50" s="58"/>
+      <c r="BF50" s="58"/>
+      <c r="BG50" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="BH50" s="40"/>
-      <c r="BI50" s="39" t="s">
+      <c r="BH50" s="55"/>
+      <c r="BI50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BJ50" s="39"/>
+      <c r="BJ50" s="58"/>
     </row>
     <row r="51" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="29">
         <v>7</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="36">
+      <c r="I51" s="64">
         <v>10</v>
       </c>
-      <c r="J51" s="36"/>
+      <c r="J51" s="64"/>
       <c r="K51" s="27"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="37">
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="66">
         <v>7</v>
       </c>
-      <c r="O51" s="37"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="36">
+      <c r="O51" s="66"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="64">
         <v>10</v>
       </c>
-      <c r="V51" s="36"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="37">
+      <c r="V51" s="64"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="66">
         <v>6</v>
       </c>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="38"/>
-      <c r="AF51" s="38"/>
-      <c r="AG51" s="38"/>
-      <c r="AH51" s="38"/>
-      <c r="AI51" s="38"/>
-      <c r="AJ51" s="36">
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="49"/>
+      <c r="AG51" s="49"/>
+      <c r="AH51" s="49"/>
+      <c r="AI51" s="49"/>
+      <c r="AJ51" s="64">
         <v>10</v>
       </c>
-      <c r="AK51" s="36"/>
-      <c r="AL51" s="38"/>
-      <c r="AM51" s="38"/>
-      <c r="AN51" s="38"/>
-      <c r="AO51" s="38"/>
-      <c r="AP51" s="38"/>
-      <c r="AQ51" s="37">
+      <c r="AK51" s="64"/>
+      <c r="AL51" s="49"/>
+      <c r="AM51" s="49"/>
+      <c r="AN51" s="49"/>
+      <c r="AO51" s="49"/>
+      <c r="AP51" s="49"/>
+      <c r="AQ51" s="66">
         <v>5</v>
       </c>
-      <c r="AR51" s="37"/>
-      <c r="AS51" s="38"/>
-      <c r="AT51" s="38"/>
-      <c r="AU51" s="38"/>
-      <c r="AV51" s="38"/>
-      <c r="AW51" s="38"/>
-      <c r="AX51" s="36">
+      <c r="AR51" s="66"/>
+      <c r="AS51" s="49"/>
+      <c r="AT51" s="49"/>
+      <c r="AU51" s="49"/>
+      <c r="AV51" s="49"/>
+      <c r="AW51" s="49"/>
+      <c r="AX51" s="64">
         <v>10</v>
       </c>
-      <c r="AY51" s="36"/>
-      <c r="AZ51" s="37">
+      <c r="AY51" s="64"/>
+      <c r="AZ51" s="66">
         <v>10</v>
       </c>
-      <c r="BA51" s="37"/>
-      <c r="BB51" s="37"/>
-      <c r="BC51" s="37"/>
-      <c r="BD51" s="38"/>
-      <c r="BE51" s="38"/>
-      <c r="BF51" s="38"/>
-      <c r="BG51" s="38"/>
-      <c r="BH51" s="38"/>
-      <c r="BI51" s="36">
+      <c r="BA51" s="66"/>
+      <c r="BB51" s="66"/>
+      <c r="BC51" s="66"/>
+      <c r="BD51" s="49"/>
+      <c r="BE51" s="49"/>
+      <c r="BF51" s="49"/>
+      <c r="BG51" s="49"/>
+      <c r="BH51" s="49"/>
+      <c r="BI51" s="64">
         <v>10</v>
       </c>
-      <c r="BJ51" s="36"/>
+      <c r="BJ51" s="64"/>
     </row>
     <row r="52" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="29">
         <v>4</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="37">
+      <c r="I52" s="66">
         <v>1</v>
       </c>
-      <c r="J52" s="37"/>
+      <c r="J52" s="66"/>
       <c r="K52" s="27"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="37">
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="66">
         <v>4</v>
       </c>
-      <c r="O52" s="37"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="37">
+      <c r="O52" s="66"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="66">
         <v>1</v>
       </c>
-      <c r="V52" s="37"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="37">
+      <c r="V52" s="66"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="66">
         <v>4</v>
       </c>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="38"/>
-      <c r="AE52" s="38"/>
-      <c r="AF52" s="38"/>
-      <c r="AG52" s="38"/>
-      <c r="AH52" s="38"/>
-      <c r="AI52" s="38"/>
-      <c r="AJ52" s="37">
+      <c r="AB52" s="66"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="49"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="49"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="66">
         <v>1</v>
       </c>
-      <c r="AK52" s="37"/>
-      <c r="AL52" s="38"/>
-      <c r="AM52" s="38"/>
-      <c r="AN52" s="38"/>
-      <c r="AO52" s="38"/>
-      <c r="AP52" s="38"/>
-      <c r="AQ52" s="37">
+      <c r="AK52" s="66"/>
+      <c r="AL52" s="49"/>
+      <c r="AM52" s="49"/>
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="49"/>
+      <c r="AP52" s="49"/>
+      <c r="AQ52" s="66">
         <v>4</v>
       </c>
-      <c r="AR52" s="37"/>
-      <c r="AS52" s="38"/>
-      <c r="AT52" s="38"/>
-      <c r="AU52" s="38"/>
-      <c r="AV52" s="38"/>
-      <c r="AW52" s="38"/>
-      <c r="AX52" s="36">
+      <c r="AR52" s="66"/>
+      <c r="AS52" s="49"/>
+      <c r="AT52" s="49"/>
+      <c r="AU52" s="49"/>
+      <c r="AV52" s="49"/>
+      <c r="AW52" s="49"/>
+      <c r="AX52" s="64">
         <v>1</v>
       </c>
-      <c r="AY52" s="36"/>
-      <c r="AZ52" s="37">
+      <c r="AY52" s="64"/>
+      <c r="AZ52" s="66">
         <v>2</v>
       </c>
-      <c r="BA52" s="37"/>
-      <c r="BB52" s="37"/>
-      <c r="BC52" s="37"/>
-      <c r="BD52" s="38"/>
-      <c r="BE52" s="38"/>
-      <c r="BF52" s="38"/>
-      <c r="BG52" s="38"/>
-      <c r="BH52" s="38"/>
-      <c r="BI52" s="37">
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="66"/>
+      <c r="BC52" s="66"/>
+      <c r="BD52" s="49"/>
+      <c r="BE52" s="49"/>
+      <c r="BF52" s="49"/>
+      <c r="BG52" s="49"/>
+      <c r="BH52" s="49"/>
+      <c r="BI52" s="66">
         <v>2</v>
       </c>
-      <c r="BJ52" s="37"/>
+      <c r="BJ52" s="66"/>
     </row>
     <row r="53" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="39"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28">
         <v>28</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="36">
+      <c r="I53" s="64">
         <v>10</v>
       </c>
-      <c r="J53" s="36"/>
+      <c r="J53" s="64"/>
       <c r="K53" s="27"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="36">
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="64">
         <v>28</v>
       </c>
-      <c r="O53" s="36"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="36">
+      <c r="O53" s="64"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="64">
         <v>10</v>
       </c>
-      <c r="V53" s="36"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="36">
+      <c r="V53" s="64"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="64">
         <v>24</v>
       </c>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="38"/>
-      <c r="AE53" s="38"/>
-      <c r="AF53" s="38"/>
-      <c r="AG53" s="38"/>
-      <c r="AH53" s="38"/>
-      <c r="AI53" s="38"/>
-      <c r="AJ53" s="36">
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="49"/>
+      <c r="AD53" s="49"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="49"/>
+      <c r="AG53" s="49"/>
+      <c r="AH53" s="49"/>
+      <c r="AI53" s="49"/>
+      <c r="AJ53" s="64">
         <v>10</v>
       </c>
-      <c r="AK53" s="36"/>
-      <c r="AL53" s="38"/>
-      <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="38"/>
-      <c r="AP53" s="38"/>
-      <c r="AQ53" s="36">
-        <v>20</v>
-      </c>
-      <c r="AR53" s="36"/>
-      <c r="AS53" s="38"/>
-      <c r="AT53" s="38"/>
-      <c r="AU53" s="38"/>
-      <c r="AV53" s="38"/>
-      <c r="AW53" s="38"/>
-      <c r="AX53" s="36">
+      <c r="AK53" s="64"/>
+      <c r="AL53" s="49"/>
+      <c r="AM53" s="49"/>
+      <c r="AN53" s="49"/>
+      <c r="AO53" s="49"/>
+      <c r="AP53" s="49"/>
+      <c r="AQ53" s="64">
+        <v>20</v>
+      </c>
+      <c r="AR53" s="64"/>
+      <c r="AS53" s="49"/>
+      <c r="AT53" s="49"/>
+      <c r="AU53" s="49"/>
+      <c r="AV53" s="49"/>
+      <c r="AW53" s="49"/>
+      <c r="AX53" s="64">
         <v>10</v>
       </c>
-      <c r="AY53" s="36"/>
-      <c r="AZ53" s="37">
-        <v>20</v>
-      </c>
-      <c r="BA53" s="37"/>
-      <c r="BB53" s="37"/>
-      <c r="BC53" s="37"/>
-      <c r="BD53" s="38"/>
-      <c r="BE53" s="38"/>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="38"/>
-      <c r="BH53" s="38"/>
-      <c r="BI53" s="36">
-        <v>20</v>
-      </c>
-      <c r="BJ53" s="36"/>
+      <c r="AY53" s="64"/>
+      <c r="AZ53" s="66">
+        <v>20</v>
+      </c>
+      <c r="BA53" s="66"/>
+      <c r="BB53" s="66"/>
+      <c r="BC53" s="66"/>
+      <c r="BD53" s="49"/>
+      <c r="BE53" s="49"/>
+      <c r="BF53" s="49"/>
+      <c r="BG53" s="49"/>
+      <c r="BH53" s="49"/>
+      <c r="BI53" s="64">
+        <v>20</v>
+      </c>
+      <c r="BJ53" s="64"/>
     </row>
     <row r="54" spans="1:62" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -15000,51 +15007,82 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A2:B19"/>
-    <mergeCell ref="AF2:AF19"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="R33:AE33"/>
-    <mergeCell ref="AF33:AT33"/>
-    <mergeCell ref="AU33:AZ33"/>
-    <mergeCell ref="A25:BR25"/>
-    <mergeCell ref="A31:BQ31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="R32:AE32"/>
-    <mergeCell ref="AF32:AT32"/>
-    <mergeCell ref="AU32:AZ32"/>
-    <mergeCell ref="BA32:BE32"/>
-    <mergeCell ref="BA33:BE33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:BJ48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AX49:AY49"/>
-    <mergeCell ref="AZ49:BC49"/>
-    <mergeCell ref="BD49:BF49"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AJ49:AK49"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AQ49:AR49"/>
+    <mergeCell ref="AX53:AY53"/>
+    <mergeCell ref="AZ53:BC53"/>
+    <mergeCell ref="BD53:BF53"/>
+    <mergeCell ref="BG53:BH53"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="AL53:AN53"/>
+    <mergeCell ref="AO53:AP53"/>
+    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="AS53:AU53"/>
+    <mergeCell ref="AV53:AW53"/>
+    <mergeCell ref="BG52:BH52"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="AA53:AB53"/>
+    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="AJ53:AK53"/>
+    <mergeCell ref="AS52:AU52"/>
+    <mergeCell ref="AV52:AW52"/>
+    <mergeCell ref="AX52:AY52"/>
+    <mergeCell ref="AZ52:BC52"/>
+    <mergeCell ref="BD52:BF52"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="AL52:AN52"/>
+    <mergeCell ref="AO52:AP52"/>
+    <mergeCell ref="AQ52:AR52"/>
+    <mergeCell ref="AZ51:BC51"/>
+    <mergeCell ref="BD51:BF51"/>
+    <mergeCell ref="BG51:BH51"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AO51:AP51"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AS51:AU51"/>
+    <mergeCell ref="AV51:AW51"/>
+    <mergeCell ref="AX51:AY51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="AX50:AY50"/>
+    <mergeCell ref="AZ50:BC50"/>
+    <mergeCell ref="BD50:BF50"/>
+    <mergeCell ref="BG50:BH50"/>
+    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="AL51:AN51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="BI50:BJ50"/>
     <mergeCell ref="AL50:AN50"/>
     <mergeCell ref="AO50:AP50"/>
@@ -15069,82 +15107,51 @@
     <mergeCell ref="AJ50:AK50"/>
     <mergeCell ref="AS49:AU49"/>
     <mergeCell ref="AV49:AW49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="AX50:AY50"/>
-    <mergeCell ref="AZ50:BC50"/>
-    <mergeCell ref="BD50:BF50"/>
-    <mergeCell ref="BG50:BH50"/>
-    <mergeCell ref="AC51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="AL51:AN51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AO52:AP52"/>
-    <mergeCell ref="AQ52:AR52"/>
-    <mergeCell ref="AZ51:BC51"/>
-    <mergeCell ref="BD51:BF51"/>
-    <mergeCell ref="BG51:BH51"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="AO51:AP51"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AS51:AU51"/>
-    <mergeCell ref="AV51:AW51"/>
-    <mergeCell ref="AX51:AY51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="BG52:BH52"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="AA53:AB53"/>
-    <mergeCell ref="AC53:AG53"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="AJ53:AK53"/>
-    <mergeCell ref="AS52:AU52"/>
-    <mergeCell ref="AV52:AW52"/>
-    <mergeCell ref="AX52:AY52"/>
-    <mergeCell ref="AZ52:BC52"/>
-    <mergeCell ref="BD52:BF52"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="AL52:AN52"/>
-    <mergeCell ref="AX53:AY53"/>
-    <mergeCell ref="AZ53:BC53"/>
-    <mergeCell ref="BD53:BF53"/>
-    <mergeCell ref="BG53:BH53"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="AL53:AN53"/>
-    <mergeCell ref="AO53:AP53"/>
-    <mergeCell ref="AQ53:AR53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AV53:AW53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:BJ48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AX49:AY49"/>
+    <mergeCell ref="AZ49:BC49"/>
+    <mergeCell ref="BD49:BF49"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AJ49:AK49"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AQ49:AR49"/>
+    <mergeCell ref="AU33:AZ33"/>
+    <mergeCell ref="A25:BR25"/>
+    <mergeCell ref="A31:BQ31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="R32:AE32"/>
+    <mergeCell ref="AF32:AT32"/>
+    <mergeCell ref="AU32:AZ32"/>
+    <mergeCell ref="BA32:BE32"/>
+    <mergeCell ref="BA33:BE33"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A2:B19"/>
+    <mergeCell ref="AF2:AF19"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="R33:AE33"/>
+    <mergeCell ref="AF33:AT33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15199,10 +15206,10 @@
       <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
@@ -15212,10 +15219,10 @@
       <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15228,10 +15235,10 @@
       <c r="M1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="59"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15244,10 +15251,10 @@
       <c r="S1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="59"/>
+      <c r="U1" s="37"/>
       <c r="V1" s="17" t="s">
         <v>55</v>
       </c>
@@ -15260,29 +15267,29 @@
       <c r="Y1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="59"/>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AD1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="59"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
@@ -15370,13 +15377,13 @@
       <c r="AE2" s="23">
         <v>75</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -15406,11 +15413,11 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
-      <c r="AF3" s="61"/>
+      <c r="AF3" s="39"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -15440,11 +15447,11 @@
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="61"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -15474,11 +15481,11 @@
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="61"/>
+      <c r="AF5" s="39"/>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -15508,11 +15515,11 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="61"/>
+      <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -15542,11 +15549,11 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="61"/>
+      <c r="AF7" s="39"/>
     </row>
     <row r="8" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -15576,11 +15583,11 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="61"/>
+      <c r="AF8" s="39"/>
     </row>
     <row r="9" spans="1:32" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -15610,11 +15617,11 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="61"/>
+      <c r="AF9" s="39"/>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -15644,11 +15651,11 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="61"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -15678,11 +15685,11 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="61"/>
+      <c r="AF11" s="39"/>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -15712,11 +15719,11 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
-      <c r="AF12" s="61"/>
+      <c r="AF12" s="39"/>
     </row>
     <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -15746,11 +15753,11 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="61"/>
+      <c r="AF13" s="39"/>
     </row>
     <row r="14" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -15780,81 +15787,81 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="61"/>
+      <c r="AF14" s="39"/>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BJ18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="38"/>
-      <c r="BM18" s="38"/>
-      <c r="BN18" s="38"/>
-      <c r="BO18" s="38"/>
-      <c r="BP18" s="38"/>
-      <c r="BQ18" s="38"/>
-      <c r="BR18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="49"/>
+      <c r="BF18" s="49"/>
+      <c r="BG18" s="49"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="49"/>
+      <c r="BJ18" s="49"/>
+      <c r="BK18" s="49"/>
+      <c r="BL18" s="49"/>
+      <c r="BM18" s="49"/>
+      <c r="BN18" s="49"/>
+      <c r="BO18" s="49"/>
+      <c r="BP18" s="49"/>
+      <c r="BQ18" s="49"/>
+      <c r="BR18" s="50"/>
     </row>
     <row r="19" spans="1:70" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -15882,219 +15889,219 @@
       </c>
     </row>
     <row r="24" spans="1:70" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="49"/>
-      <c r="BJ24" s="49"/>
-      <c r="BK24" s="49"/>
-      <c r="BL24" s="49"/>
-      <c r="BM24" s="49"/>
-      <c r="BN24" s="49"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="49"/>
-      <c r="BQ24" s="50"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="52"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="52"/>
+      <c r="BE24" s="52"/>
+      <c r="BF24" s="52"/>
+      <c r="BG24" s="52"/>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="52"/>
+      <c r="BJ24" s="52"/>
+      <c r="BK24" s="52"/>
+      <c r="BL24" s="52"/>
+      <c r="BM24" s="52"/>
+      <c r="BN24" s="52"/>
+      <c r="BO24" s="52"/>
+      <c r="BP24" s="52"/>
+      <c r="BQ24" s="53"/>
     </row>
     <row r="25" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="51" t="s">
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="51" t="s">
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
-      <c r="AS25" s="40"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="53" t="s">
+      <c r="AV25" s="58"/>
+      <c r="AW25" s="58"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="58"/>
+      <c r="AZ25" s="59"/>
+      <c r="BA25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="BB25" s="39"/>
-      <c r="BC25" s="39"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="54"/>
+      <c r="BB25" s="58"/>
+      <c r="BC25" s="58"/>
+      <c r="BD25" s="58"/>
+      <c r="BE25" s="59"/>
     </row>
     <row r="26" spans="1:70" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="64" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="64" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="44" t="s">
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="44" t="s">
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="55" t="s">
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56"/>
-      <c r="BE26" s="57"/>
+      <c r="BB26" s="61"/>
+      <c r="BC26" s="61"/>
+      <c r="BD26" s="61"/>
+      <c r="BE26" s="62"/>
     </row>
     <row r="27" spans="1:70" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -16157,142 +16164,142 @@
       </c>
     </row>
     <row r="39" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
-      <c r="BA39" s="41"/>
-      <c r="BB39" s="41"/>
-      <c r="BC39" s="41"/>
-      <c r="BD39" s="41"/>
-      <c r="BE39" s="41"/>
-      <c r="BF39" s="41"/>
-      <c r="BG39" s="41"/>
-      <c r="BH39" s="41"/>
-      <c r="BI39" s="41"/>
-      <c r="BJ39" s="41"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43"/>
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="43"/>
+      <c r="AW39" s="43"/>
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="43"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
     </row>
     <row r="40" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BI40" s="42"/>
-      <c r="BJ40" s="42"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="63"/>
+      <c r="AY40" s="63"/>
+      <c r="AZ40" s="63"/>
+      <c r="BA40" s="63"/>
+      <c r="BB40" s="63"/>
+      <c r="BC40" s="63"/>
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="63"/>
+      <c r="BG40" s="63"/>
+      <c r="BH40" s="63"/>
+      <c r="BI40" s="63"/>
+      <c r="BJ40" s="63"/>
     </row>
     <row r="41" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="28">
         <v>53</v>
       </c>
@@ -16302,119 +16309,119 @@
       <c r="E41" s="28">
         <v>73</v>
       </c>
-      <c r="F41" s="36">
-        <v>23</v>
-      </c>
-      <c r="G41" s="36"/>
+      <c r="F41" s="64">
+        <v>23</v>
+      </c>
+      <c r="G41" s="64"/>
       <c r="H41" s="28">
         <v>22</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="64">
         <v>45</v>
       </c>
-      <c r="J41" s="36"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="28">
         <v>57</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="64">
         <v>18</v>
       </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36">
+      <c r="M41" s="64"/>
+      <c r="N41" s="64">
         <v>75</v>
       </c>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36">
-        <v>23</v>
-      </c>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36">
+      <c r="O41" s="64"/>
+      <c r="P41" s="64">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64">
+        <v>23</v>
+      </c>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64">
         <v>46</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36">
+      <c r="V41" s="64"/>
+      <c r="W41" s="64">
         <v>55</v>
       </c>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36">
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64">
         <v>15</v>
       </c>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36">
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64">
         <v>70</v>
       </c>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36">
-        <v>20</v>
-      </c>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36">
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64">
+        <v>20</v>
+      </c>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="64">
         <v>17</v>
       </c>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="43" t="s">
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="36">
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="64">
         <v>50</v>
       </c>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36">
+      <c r="AN41" s="64"/>
+      <c r="AO41" s="64">
         <v>11</v>
       </c>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36">
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64">
         <v>61</v>
       </c>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36">
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64">
         <v>17</v>
       </c>
-      <c r="AT41" s="36"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="36">
-        <v>22</v>
-      </c>
-      <c r="AW41" s="36"/>
-      <c r="AX41" s="43" t="s">
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="64"/>
+      <c r="AV41" s="64">
+        <v>22</v>
+      </c>
+      <c r="AW41" s="64"/>
+      <c r="AX41" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="37">
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="66">
         <v>48</v>
       </c>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="36">
-        <v>23</v>
-      </c>
-      <c r="BD41" s="36"/>
-      <c r="BE41" s="36"/>
-      <c r="BF41" s="36"/>
-      <c r="BG41" s="36">
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="64">
+        <v>23</v>
+      </c>
+      <c r="BD41" s="64"/>
+      <c r="BE41" s="64"/>
+      <c r="BF41" s="64"/>
+      <c r="BG41" s="64">
         <v>43</v>
       </c>
-      <c r="BH41" s="36"/>
-      <c r="BI41" s="36">
+      <c r="BH41" s="64"/>
+      <c r="BI41" s="64">
         <v>66</v>
       </c>
-      <c r="BJ41" s="36"/>
+      <c r="BJ41" s="64"/>
     </row>
     <row r="42" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="39"/>
+      <c r="A42" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="58"/>
       <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
@@ -16424,377 +16431,377 @@
       <c r="E42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="39"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="39"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="40" t="s">
+      <c r="L42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40" t="s">
+      <c r="M42" s="55"/>
+      <c r="N42" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="40"/>
-      <c r="P42" s="39" t="s">
+      <c r="O42" s="55"/>
+      <c r="P42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40" t="s">
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="40"/>
-      <c r="U42" s="39" t="s">
+      <c r="T42" s="55"/>
+      <c r="U42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="V42" s="39"/>
-      <c r="W42" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40" t="s">
+      <c r="V42" s="58"/>
+      <c r="W42" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40" t="s">
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="39" t="s">
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="40" t="s">
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AK42" s="40"/>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT42" s="39"/>
-      <c r="AU42" s="39"/>
-      <c r="AV42" s="39" t="s">
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AW42" s="39"/>
-      <c r="AX42" s="39" t="s">
+      <c r="AW42" s="58"/>
+      <c r="AX42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AY42" s="39"/>
-      <c r="AZ42" s="40" t="s">
+      <c r="AY42" s="58"/>
+      <c r="AZ42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="BA42" s="40"/>
-      <c r="BB42" s="40"/>
-      <c r="BC42" s="39" t="s">
+      <c r="BA42" s="55"/>
+      <c r="BB42" s="55"/>
+      <c r="BC42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BD42" s="39"/>
-      <c r="BE42" s="39"/>
-      <c r="BF42" s="39"/>
-      <c r="BG42" s="40" t="s">
+      <c r="BD42" s="58"/>
+      <c r="BE42" s="58"/>
+      <c r="BF42" s="58"/>
+      <c r="BG42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="BH42" s="40"/>
-      <c r="BI42" s="39" t="s">
+      <c r="BH42" s="55"/>
+      <c r="BI42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BJ42" s="39"/>
+      <c r="BJ42" s="58"/>
     </row>
     <row r="43" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="29">
         <v>8</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="36">
+      <c r="I43" s="64">
         <v>10</v>
       </c>
-      <c r="J43" s="36"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="27"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="37">
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="66">
         <v>9</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="36">
+      <c r="O43" s="66"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="64">
         <v>10</v>
       </c>
-      <c r="V43" s="36"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="37">
+      <c r="V43" s="64"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="66">
         <v>8</v>
       </c>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="36">
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="64">
         <v>10</v>
       </c>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="37">
+      <c r="AK43" s="64"/>
+      <c r="AL43" s="64"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="66">
         <v>7</v>
       </c>
-      <c r="AR43" s="37"/>
-      <c r="AS43" s="38"/>
-      <c r="AT43" s="38"/>
-      <c r="AU43" s="38"/>
-      <c r="AV43" s="38"/>
-      <c r="AW43" s="38"/>
-      <c r="AX43" s="36">
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="49"/>
+      <c r="AU43" s="49"/>
+      <c r="AV43" s="49"/>
+      <c r="AW43" s="49"/>
+      <c r="AX43" s="64">
         <v>10</v>
       </c>
-      <c r="AY43" s="36"/>
-      <c r="AZ43" s="37">
+      <c r="AY43" s="64"/>
+      <c r="AZ43" s="66">
         <v>10</v>
       </c>
-      <c r="BA43" s="37"/>
-      <c r="BB43" s="37"/>
-      <c r="BC43" s="38"/>
-      <c r="BD43" s="38"/>
-      <c r="BE43" s="38"/>
-      <c r="BF43" s="38"/>
-      <c r="BG43" s="38"/>
-      <c r="BH43" s="38"/>
-      <c r="BI43" s="36">
+      <c r="BA43" s="66"/>
+      <c r="BB43" s="66"/>
+      <c r="BC43" s="49"/>
+      <c r="BD43" s="49"/>
+      <c r="BE43" s="49"/>
+      <c r="BF43" s="49"/>
+      <c r="BG43" s="49"/>
+      <c r="BH43" s="49"/>
+      <c r="BI43" s="64">
         <v>10</v>
       </c>
-      <c r="BJ43" s="36"/>
+      <c r="BJ43" s="64"/>
     </row>
     <row r="44" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="29">
         <v>4</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="37">
+      <c r="I44" s="66">
         <v>1</v>
       </c>
-      <c r="J44" s="37"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="27"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="37">
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="66">
         <v>4</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="37">
+      <c r="O44" s="66"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="66">
         <v>1</v>
       </c>
-      <c r="V44" s="37"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="37">
+      <c r="V44" s="66"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="66">
         <v>4</v>
       </c>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="37">
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="49"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="66">
         <v>1</v>
       </c>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="37">
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="49"/>
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="49"/>
+      <c r="AQ44" s="66">
         <v>4</v>
       </c>
-      <c r="AR44" s="37"/>
-      <c r="AS44" s="38"/>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="36">
+      <c r="AR44" s="66"/>
+      <c r="AS44" s="49"/>
+      <c r="AT44" s="49"/>
+      <c r="AU44" s="49"/>
+      <c r="AV44" s="49"/>
+      <c r="AW44" s="49"/>
+      <c r="AX44" s="64">
         <v>1</v>
       </c>
-      <c r="AY44" s="36"/>
-      <c r="AZ44" s="37">
+      <c r="AY44" s="64"/>
+      <c r="AZ44" s="66">
         <v>2</v>
       </c>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="37"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="38"/>
-      <c r="BH44" s="38"/>
-      <c r="BI44" s="37">
+      <c r="BA44" s="66"/>
+      <c r="BB44" s="66"/>
+      <c r="BC44" s="49"/>
+      <c r="BD44" s="49"/>
+      <c r="BE44" s="49"/>
+      <c r="BF44" s="49"/>
+      <c r="BG44" s="49"/>
+      <c r="BH44" s="49"/>
+      <c r="BI44" s="66">
         <v>2</v>
       </c>
-      <c r="BJ44" s="37"/>
+      <c r="BJ44" s="66"/>
     </row>
     <row r="45" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="28">
         <v>32</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="36">
+      <c r="I45" s="64">
         <v>10</v>
       </c>
-      <c r="J45" s="36"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="27"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="36">
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="64">
         <v>36</v>
       </c>
-      <c r="O45" s="36"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="36">
+      <c r="O45" s="64"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="64">
         <v>10</v>
       </c>
-      <c r="V45" s="36"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="36">
+      <c r="V45" s="64"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="64">
         <v>32</v>
       </c>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="36">
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="49"/>
+      <c r="AI45" s="49"/>
+      <c r="AJ45" s="64">
         <v>10</v>
       </c>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="36">
+      <c r="AK45" s="64"/>
+      <c r="AL45" s="64"/>
+      <c r="AM45" s="49"/>
+      <c r="AN45" s="49"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="64">
         <v>28</v>
       </c>
-      <c r="AR45" s="36"/>
-      <c r="AS45" s="38"/>
-      <c r="AT45" s="38"/>
-      <c r="AU45" s="38"/>
-      <c r="AV45" s="38"/>
-      <c r="AW45" s="38"/>
-      <c r="AX45" s="36">
+      <c r="AR45" s="64"/>
+      <c r="AS45" s="49"/>
+      <c r="AT45" s="49"/>
+      <c r="AU45" s="49"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="64">
         <v>10</v>
       </c>
-      <c r="AY45" s="36"/>
-      <c r="AZ45" s="37">
-        <v>20</v>
-      </c>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="38"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
-      <c r="BF45" s="38"/>
-      <c r="BG45" s="38"/>
-      <c r="BH45" s="38"/>
-      <c r="BI45" s="36">
-        <v>20</v>
-      </c>
-      <c r="BJ45" s="36"/>
+      <c r="AY45" s="64"/>
+      <c r="AZ45" s="66">
+        <v>20</v>
+      </c>
+      <c r="BA45" s="66"/>
+      <c r="BB45" s="66"/>
+      <c r="BC45" s="49"/>
+      <c r="BD45" s="49"/>
+      <c r="BE45" s="49"/>
+      <c r="BF45" s="49"/>
+      <c r="BG45" s="49"/>
+      <c r="BH45" s="49"/>
+      <c r="BI45" s="64">
+        <v>20</v>
+      </c>
+      <c r="BJ45" s="64"/>
     </row>
     <row r="46" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="28">
         <v>35</v>
       </c>
@@ -16804,119 +16811,119 @@
       <c r="E46" s="28">
         <v>50</v>
       </c>
-      <c r="F46" s="36">
-        <v>22</v>
-      </c>
-      <c r="G46" s="36"/>
+      <c r="F46" s="64">
+        <v>22</v>
+      </c>
+      <c r="G46" s="64"/>
       <c r="H46" s="28">
         <v>21</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="64">
         <v>43</v>
       </c>
-      <c r="J46" s="36"/>
+      <c r="J46" s="64"/>
       <c r="K46" s="28">
         <v>46</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="64">
         <v>14</v>
       </c>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36">
+      <c r="M46" s="64"/>
+      <c r="N46" s="64">
         <v>60</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36">
-        <v>22</v>
-      </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36">
-        <v>21</v>
-      </c>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36">
+      <c r="O46" s="64"/>
+      <c r="P46" s="64">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64">
+        <v>21</v>
+      </c>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64">
         <v>43</v>
       </c>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36">
+      <c r="V46" s="64"/>
+      <c r="W46" s="64">
         <v>39</v>
       </c>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36">
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64">
         <v>14</v>
       </c>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36">
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64">
         <v>53</v>
       </c>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36">
-        <v>21</v>
-      </c>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36">
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64">
+        <v>21</v>
+      </c>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64">
         <v>17</v>
       </c>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="43" t="s">
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AK46" s="43"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="36">
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="64">
         <v>32</v>
       </c>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36">
+      <c r="AN46" s="64"/>
+      <c r="AO46" s="64">
         <v>16</v>
       </c>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36">
+      <c r="AP46" s="64"/>
+      <c r="AQ46" s="64">
         <v>48</v>
       </c>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36">
-        <v>21</v>
-      </c>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36">
-        <v>20</v>
-      </c>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="36">
+      <c r="AR46" s="64"/>
+      <c r="AS46" s="64">
+        <v>21</v>
+      </c>
+      <c r="AT46" s="64"/>
+      <c r="AU46" s="64"/>
+      <c r="AV46" s="64">
+        <v>20</v>
+      </c>
+      <c r="AW46" s="64"/>
+      <c r="AX46" s="64">
         <v>41</v>
       </c>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="37">
+      <c r="AY46" s="64"/>
+      <c r="AZ46" s="66">
         <v>47</v>
       </c>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="36">
-        <v>23</v>
-      </c>
-      <c r="BD46" s="36"/>
-      <c r="BE46" s="36"/>
-      <c r="BF46" s="36"/>
-      <c r="BG46" s="36">
+      <c r="BA46" s="66"/>
+      <c r="BB46" s="66"/>
+      <c r="BC46" s="64">
+        <v>23</v>
+      </c>
+      <c r="BD46" s="64"/>
+      <c r="BE46" s="64"/>
+      <c r="BF46" s="64"/>
+      <c r="BG46" s="64">
         <v>39</v>
       </c>
-      <c r="BH46" s="36"/>
-      <c r="BI46" s="36">
+      <c r="BH46" s="64"/>
+      <c r="BI46" s="64">
         <v>62</v>
       </c>
-      <c r="BJ46" s="36"/>
+      <c r="BJ46" s="64"/>
     </row>
     <row r="47" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="39"/>
+      <c r="A47" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="58"/>
       <c r="C47" s="26" t="s">
         <v>21</v>
       </c>
@@ -16926,371 +16933,371 @@
       <c r="E47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="39"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="39"/>
+      <c r="J47" s="58"/>
       <c r="K47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="40" t="s">
+      <c r="L47" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="40"/>
-      <c r="P47" s="39" t="s">
+      <c r="M47" s="55"/>
+      <c r="N47" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="55"/>
+      <c r="P47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="40" t="s">
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="40"/>
-      <c r="U47" s="39" t="s">
+      <c r="T47" s="55"/>
+      <c r="U47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="V47" s="39"/>
-      <c r="W47" s="40" t="s">
+      <c r="V47" s="58"/>
+      <c r="W47" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40" t="s">
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="39" t="s">
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="40" t="s">
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40"/>
-      <c r="AM47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="40" t="s">
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AP47" s="40"/>
-      <c r="AQ47" s="40" t="s">
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="39" t="s">
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AT47" s="39"/>
-      <c r="AU47" s="39"/>
-      <c r="AV47" s="39" t="s">
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AW47" s="39"/>
-      <c r="AX47" s="39" t="s">
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AY47" s="39"/>
-      <c r="AZ47" s="40" t="s">
+      <c r="AY47" s="58"/>
+      <c r="AZ47" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="BA47" s="40"/>
-      <c r="BB47" s="40"/>
-      <c r="BC47" s="39" t="s">
+      <c r="BA47" s="55"/>
+      <c r="BB47" s="55"/>
+      <c r="BC47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BD47" s="39"/>
-      <c r="BE47" s="39"/>
-      <c r="BF47" s="39"/>
-      <c r="BG47" s="40" t="s">
+      <c r="BD47" s="58"/>
+      <c r="BE47" s="58"/>
+      <c r="BF47" s="58"/>
+      <c r="BG47" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="BH47" s="40"/>
-      <c r="BI47" s="39" t="s">
+      <c r="BH47" s="55"/>
+      <c r="BI47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BJ47" s="39"/>
+      <c r="BJ47" s="58"/>
     </row>
     <row r="48" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="29">
         <v>6</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="36">
+      <c r="I48" s="64">
         <v>10</v>
       </c>
-      <c r="J48" s="36"/>
+      <c r="J48" s="64"/>
       <c r="K48" s="27"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="37">
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="66">
         <v>7</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="36">
+      <c r="O48" s="66"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="64">
         <v>10</v>
       </c>
-      <c r="V48" s="36"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="37">
+      <c r="V48" s="64"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="66">
         <v>6</v>
       </c>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="36">
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="49"/>
+      <c r="AI48" s="49"/>
+      <c r="AJ48" s="64">
         <v>10</v>
       </c>
-      <c r="AK48" s="36"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="37">
+      <c r="AK48" s="64"/>
+      <c r="AL48" s="64"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="66">
         <v>5</v>
       </c>
-      <c r="AR48" s="37"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="36">
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="49"/>
+      <c r="AT48" s="49"/>
+      <c r="AU48" s="49"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="49"/>
+      <c r="AX48" s="64">
         <v>10</v>
       </c>
-      <c r="AY48" s="36"/>
-      <c r="AZ48" s="37">
+      <c r="AY48" s="64"/>
+      <c r="AZ48" s="66">
         <v>10</v>
       </c>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="38"/>
-      <c r="BD48" s="38"/>
-      <c r="BE48" s="38"/>
-      <c r="BF48" s="38"/>
-      <c r="BG48" s="38"/>
-      <c r="BH48" s="38"/>
-      <c r="BI48" s="36">
+      <c r="BA48" s="66"/>
+      <c r="BB48" s="66"/>
+      <c r="BC48" s="49"/>
+      <c r="BD48" s="49"/>
+      <c r="BE48" s="49"/>
+      <c r="BF48" s="49"/>
+      <c r="BG48" s="49"/>
+      <c r="BH48" s="49"/>
+      <c r="BI48" s="64">
         <v>10</v>
       </c>
-      <c r="BJ48" s="36"/>
+      <c r="BJ48" s="64"/>
     </row>
     <row r="49" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="29">
         <v>4</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="37">
+      <c r="I49" s="66">
         <v>1</v>
       </c>
-      <c r="J49" s="37"/>
+      <c r="J49" s="66"/>
       <c r="K49" s="27"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="37">
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="66">
         <v>4</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="37">
+      <c r="O49" s="66"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="66">
         <v>1</v>
       </c>
-      <c r="V49" s="37"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="37">
+      <c r="V49" s="66"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="66">
         <v>4</v>
       </c>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-      <c r="AF49" s="38"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="37">
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="49"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="49"/>
+      <c r="AG49" s="49"/>
+      <c r="AH49" s="49"/>
+      <c r="AI49" s="49"/>
+      <c r="AJ49" s="66">
         <v>1</v>
       </c>
-      <c r="AK49" s="37"/>
-      <c r="AL49" s="37"/>
-      <c r="AM49" s="38"/>
-      <c r="AN49" s="38"/>
-      <c r="AO49" s="38"/>
-      <c r="AP49" s="38"/>
-      <c r="AQ49" s="37">
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="49"/>
+      <c r="AN49" s="49"/>
+      <c r="AO49" s="49"/>
+      <c r="AP49" s="49"/>
+      <c r="AQ49" s="66">
         <v>4</v>
       </c>
-      <c r="AR49" s="37"/>
-      <c r="AS49" s="38"/>
-      <c r="AT49" s="38"/>
-      <c r="AU49" s="38"/>
-      <c r="AV49" s="38"/>
-      <c r="AW49" s="38"/>
-      <c r="AX49" s="36">
+      <c r="AR49" s="66"/>
+      <c r="AS49" s="49"/>
+      <c r="AT49" s="49"/>
+      <c r="AU49" s="49"/>
+      <c r="AV49" s="49"/>
+      <c r="AW49" s="49"/>
+      <c r="AX49" s="64">
         <v>1</v>
       </c>
-      <c r="AY49" s="36"/>
-      <c r="AZ49" s="37">
+      <c r="AY49" s="64"/>
+      <c r="AZ49" s="66">
         <v>2</v>
       </c>
-      <c r="BA49" s="37"/>
-      <c r="BB49" s="37"/>
-      <c r="BC49" s="38"/>
-      <c r="BD49" s="38"/>
-      <c r="BE49" s="38"/>
-      <c r="BF49" s="38"/>
-      <c r="BG49" s="38"/>
-      <c r="BH49" s="38"/>
-      <c r="BI49" s="37">
+      <c r="BA49" s="66"/>
+      <c r="BB49" s="66"/>
+      <c r="BC49" s="49"/>
+      <c r="BD49" s="49"/>
+      <c r="BE49" s="49"/>
+      <c r="BF49" s="49"/>
+      <c r="BG49" s="49"/>
+      <c r="BH49" s="49"/>
+      <c r="BI49" s="66">
         <v>2</v>
       </c>
-      <c r="BJ49" s="37"/>
+      <c r="BJ49" s="66"/>
     </row>
     <row r="50" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28">
         <v>24</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="27"/>
-      <c r="I50" s="36">
+      <c r="I50" s="64">
         <v>10</v>
       </c>
-      <c r="J50" s="36"/>
+      <c r="J50" s="64"/>
       <c r="K50" s="27"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="36">
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="64">
         <v>28</v>
       </c>
-      <c r="O50" s="36"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="36">
+      <c r="O50" s="64"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="64">
         <v>10</v>
       </c>
-      <c r="V50" s="36"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="36">
+      <c r="V50" s="64"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="64">
         <v>24</v>
       </c>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="36">
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="49"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="49"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="49"/>
+      <c r="AI50" s="49"/>
+      <c r="AJ50" s="64">
         <v>10</v>
       </c>
-      <c r="AK50" s="36"/>
-      <c r="AL50" s="36"/>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="38"/>
-      <c r="AP50" s="38"/>
-      <c r="AQ50" s="36">
-        <v>20</v>
-      </c>
-      <c r="AR50" s="36"/>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
-      <c r="AW50" s="38"/>
-      <c r="AX50" s="36">
+      <c r="AK50" s="64"/>
+      <c r="AL50" s="64"/>
+      <c r="AM50" s="49"/>
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="49"/>
+      <c r="AP50" s="49"/>
+      <c r="AQ50" s="64">
+        <v>20</v>
+      </c>
+      <c r="AR50" s="64"/>
+      <c r="AS50" s="49"/>
+      <c r="AT50" s="49"/>
+      <c r="AU50" s="49"/>
+      <c r="AV50" s="49"/>
+      <c r="AW50" s="49"/>
+      <c r="AX50" s="64">
         <v>10</v>
       </c>
-      <c r="AY50" s="36"/>
-      <c r="AZ50" s="37">
-        <v>20</v>
-      </c>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37"/>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="38"/>
-      <c r="BF50" s="38"/>
-      <c r="BG50" s="38"/>
-      <c r="BH50" s="38"/>
-      <c r="BI50" s="36">
-        <v>20</v>
-      </c>
-      <c r="BJ50" s="36"/>
+      <c r="AY50" s="64"/>
+      <c r="AZ50" s="66">
+        <v>20</v>
+      </c>
+      <c r="BA50" s="66"/>
+      <c r="BB50" s="66"/>
+      <c r="BC50" s="49"/>
+      <c r="BD50" s="49"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="49"/>
+      <c r="BG50" s="49"/>
+      <c r="BH50" s="49"/>
+      <c r="BI50" s="64">
+        <v>20</v>
+      </c>
+      <c r="BJ50" s="64"/>
     </row>
     <row r="51" spans="1:62" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -17349,22 +17356,231 @@
     </row>
   </sheetData>
   <mergeCells count="265">
-    <mergeCell ref="A18:BR18"/>
-    <mergeCell ref="A24:BQ24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="R25:AE25"/>
-    <mergeCell ref="AF25:AT25"/>
-    <mergeCell ref="AU25:AZ25"/>
-    <mergeCell ref="BA25:BE25"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A2:B14"/>
-    <mergeCell ref="AF2:AF14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="BG50:BH50"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="AS50:AU50"/>
+    <mergeCell ref="AV50:AW50"/>
+    <mergeCell ref="AX50:AY50"/>
+    <mergeCell ref="AZ50:BB50"/>
+    <mergeCell ref="BC50:BF50"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AO50:AP50"/>
+    <mergeCell ref="AQ50:AR50"/>
+    <mergeCell ref="AZ49:BB49"/>
+    <mergeCell ref="BC49:BF49"/>
+    <mergeCell ref="BG49:BH49"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AQ49:AR49"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AV49:AW49"/>
+    <mergeCell ref="AX49:AY49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="AX48:AY48"/>
+    <mergeCell ref="AZ48:BB48"/>
+    <mergeCell ref="BC48:BF48"/>
+    <mergeCell ref="BG48:BH48"/>
+    <mergeCell ref="BI48:BJ48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AQ48:AR48"/>
+    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="AV48:AW48"/>
+    <mergeCell ref="BG47:BH47"/>
+    <mergeCell ref="BI47:BJ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AS47:AU47"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AX47:AY47"/>
+    <mergeCell ref="AZ47:BB47"/>
+    <mergeCell ref="BC47:BF47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="AQ47:AR47"/>
+    <mergeCell ref="AZ46:BB46"/>
+    <mergeCell ref="BC46:BF46"/>
+    <mergeCell ref="BG46:BH46"/>
+    <mergeCell ref="BI46:BJ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AX46:AY46"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="AX45:AY45"/>
+    <mergeCell ref="AZ45:BB45"/>
+    <mergeCell ref="BC45:BF45"/>
+    <mergeCell ref="BG45:BH45"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="BI45:BJ45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:AR45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AV45:AW45"/>
+    <mergeCell ref="BG44:BH44"/>
+    <mergeCell ref="BI44:BJ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:AY44"/>
+    <mergeCell ref="AZ44:BB44"/>
+    <mergeCell ref="BC44:BF44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="AZ43:BB43"/>
+    <mergeCell ref="BC43:BF43"/>
+    <mergeCell ref="BG43:BH43"/>
+    <mergeCell ref="BI43:BJ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AQ43:AR43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AV43:AW43"/>
+    <mergeCell ref="AX43:AY43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="AZ42:BB42"/>
+    <mergeCell ref="BC42:BF42"/>
+    <mergeCell ref="BG42:BH42"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AQ42:AR42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AV42:AW42"/>
+    <mergeCell ref="BI41:BJ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BB41"/>
+    <mergeCell ref="BC41:BF41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AX42:AY42"/>
     <mergeCell ref="AO41:AP41"/>
     <mergeCell ref="AQ41:AR41"/>
     <mergeCell ref="BA26:BE26"/>
@@ -17389,231 +17605,22 @@
     <mergeCell ref="AF26:AT26"/>
     <mergeCell ref="AU26:AZ26"/>
     <mergeCell ref="BG41:BH41"/>
-    <mergeCell ref="BI41:BJ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BB41"/>
-    <mergeCell ref="BC41:BF41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AX42:AY42"/>
-    <mergeCell ref="AZ42:BB42"/>
-    <mergeCell ref="BC42:BF42"/>
-    <mergeCell ref="BG42:BH42"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="AQ42:AR42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AV42:AW42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="BG43:BH43"/>
-    <mergeCell ref="BI43:BJ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AG44"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AQ43:AR43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AV43:AW43"/>
-    <mergeCell ref="AX43:AY43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AX44:AY44"/>
-    <mergeCell ref="AZ44:BB44"/>
-    <mergeCell ref="BC44:BF44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="AZ43:BB43"/>
-    <mergeCell ref="BC43:BF43"/>
-    <mergeCell ref="BI45:BJ45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:AR45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AV45:AW45"/>
-    <mergeCell ref="BG44:BH44"/>
-    <mergeCell ref="BI44:BJ44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="AX45:AY45"/>
-    <mergeCell ref="AZ45:BB45"/>
-    <mergeCell ref="BC45:BF45"/>
-    <mergeCell ref="BG45:BH45"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="AQ47:AR47"/>
-    <mergeCell ref="AZ46:BB46"/>
-    <mergeCell ref="BC46:BF46"/>
-    <mergeCell ref="BG46:BH46"/>
-    <mergeCell ref="BI46:BJ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AX46:AY46"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="BG47:BH47"/>
-    <mergeCell ref="BI47:BJ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AX47:AY47"/>
-    <mergeCell ref="AZ47:BB47"/>
-    <mergeCell ref="BC47:BF47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="AX48:AY48"/>
-    <mergeCell ref="AZ48:BB48"/>
-    <mergeCell ref="BC48:BF48"/>
-    <mergeCell ref="BG48:BH48"/>
-    <mergeCell ref="BI48:BJ48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AQ48:AR48"/>
-    <mergeCell ref="AS48:AU48"/>
-    <mergeCell ref="AV48:AW48"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="AZ49:BB49"/>
-    <mergeCell ref="BC49:BF49"/>
-    <mergeCell ref="BG49:BH49"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AQ49:AR49"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AV49:AW49"/>
-    <mergeCell ref="AX49:AY49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="BG50:BH50"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="AS50:AU50"/>
-    <mergeCell ref="AV50:AW50"/>
-    <mergeCell ref="AX50:AY50"/>
-    <mergeCell ref="AZ50:BB50"/>
-    <mergeCell ref="BC50:BF50"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="AO50:AP50"/>
-    <mergeCell ref="AQ50:AR50"/>
+    <mergeCell ref="A18:BR18"/>
+    <mergeCell ref="A24:BQ24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="R25:AE25"/>
+    <mergeCell ref="AF25:AT25"/>
+    <mergeCell ref="AU25:AZ25"/>
+    <mergeCell ref="BA25:BE25"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A2:B14"/>
+    <mergeCell ref="AF2:AF14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
